--- a/EvergreenPortTAC/Test.xlsx
+++ b/EvergreenPortTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,88 +32,196 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TLLU4140075</t>
-  </si>
-  <si>
-    <t>TRITON</t>
-  </si>
-  <si>
-    <t>00016</t>
-  </si>
-  <si>
-    <t>DJLAXA3787663</t>
-  </si>
-  <si>
-    <t>7075348470</t>
-  </si>
-  <si>
-    <t>082900024555</t>
-  </si>
-  <si>
-    <t>FSCU8730350</t>
-  </si>
-  <si>
-    <t>EVER LISSOME</t>
-  </si>
-  <si>
-    <t>01076</t>
-  </si>
-  <si>
-    <t>DJLAXA3786864</t>
-  </si>
-  <si>
-    <t>7075333857</t>
-  </si>
-  <si>
-    <t>6198931060</t>
-  </si>
-  <si>
-    <t>CBHU8793284</t>
-  </si>
-  <si>
-    <t>EVER ELITE</t>
-  </si>
-  <si>
-    <t>7075346728</t>
-  </si>
-  <si>
-    <t>6202913150</t>
-  </si>
-  <si>
-    <t>AMFU8780988</t>
-  </si>
-  <si>
-    <t>TCNU1206516</t>
-  </si>
-  <si>
-    <t>DFSU6092008</t>
-  </si>
-  <si>
-    <t>CCLU7905672</t>
-  </si>
-  <si>
-    <t>EMCU1432958</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>7075336638</t>
-  </si>
-  <si>
-    <t>061900005604</t>
-  </si>
-  <si>
-    <t>BMOU4797358</t>
-  </si>
-  <si>
-    <t>DJLAXA3780305</t>
-  </si>
-  <si>
-    <t>7075342252</t>
-  </si>
-  <si>
-    <t>061900007453</t>
+    <t>CCLU7240577</t>
+  </si>
+  <si>
+    <t>EVER SIGMA</t>
+  </si>
+  <si>
+    <t>00093</t>
+  </si>
+  <si>
+    <t>DJSEAA3619648</t>
+  </si>
+  <si>
+    <t>7031976165</t>
+  </si>
+  <si>
+    <t>6200233660</t>
+  </si>
+  <si>
+    <t>RFCU4098919</t>
+  </si>
+  <si>
+    <t>EVER EAGLE</t>
+  </si>
+  <si>
+    <t>00136</t>
+  </si>
+  <si>
+    <t>DJSEAA3679470</t>
+  </si>
+  <si>
+    <t>7031980346</t>
+  </si>
+  <si>
+    <t>6200236060</t>
+  </si>
+  <si>
+    <t>TEMU4148408</t>
+  </si>
+  <si>
+    <t>CAPE AKRITAS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7031968322</t>
+  </si>
+  <si>
+    <t>235801266748</t>
+  </si>
+  <si>
+    <t>NYKU0753003</t>
+  </si>
+  <si>
+    <t>GUANG DONG BRIDGE</t>
+  </si>
+  <si>
+    <t>00031</t>
+  </si>
+  <si>
+    <t>DJSEAA3715740</t>
+  </si>
+  <si>
+    <t>7031987003</t>
+  </si>
+  <si>
+    <t>SH9AC9334700</t>
+  </si>
+  <si>
+    <t>CCLU5227909</t>
+  </si>
+  <si>
+    <t>EVER ENVOY</t>
+  </si>
+  <si>
+    <t>00148</t>
+  </si>
+  <si>
+    <t>DJSEAA3780559</t>
+  </si>
+  <si>
+    <t>7031996365</t>
+  </si>
+  <si>
+    <t>6200716180</t>
+  </si>
+  <si>
+    <t>DTXU2015070</t>
+  </si>
+  <si>
+    <t>EVER SHINE</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>DJSEAA3750748</t>
+  </si>
+  <si>
+    <t>7031991721</t>
+  </si>
+  <si>
+    <t>6200715070</t>
+  </si>
+  <si>
+    <t>TRHU1691652</t>
+  </si>
+  <si>
+    <t>00021</t>
+  </si>
+  <si>
+    <t>DJSEAA3772782</t>
+  </si>
+  <si>
+    <t>7031986736</t>
+  </si>
+  <si>
+    <t>AMC0712635</t>
+  </si>
+  <si>
+    <t>EITU0186706</t>
+  </si>
+  <si>
+    <t>DJSEAA3775264</t>
+  </si>
+  <si>
+    <t>7031988696</t>
+  </si>
+  <si>
+    <t>003900304990</t>
+  </si>
+  <si>
+    <t>EGHU1025808</t>
+  </si>
+  <si>
+    <t>DJSEAA3779502</t>
+  </si>
+  <si>
+    <t>7031992682</t>
+  </si>
+  <si>
+    <t>003900493326</t>
+  </si>
+  <si>
+    <t>PVCU2812036</t>
+  </si>
+  <si>
+    <t>DJPDXA3768092</t>
+  </si>
+  <si>
+    <t>7180838971</t>
+  </si>
+  <si>
+    <t>6200614820</t>
+  </si>
+  <si>
+    <t>IMTU1044437</t>
+  </si>
+  <si>
+    <t>DJSEAA3737497</t>
+  </si>
+  <si>
+    <t>7031989208</t>
+  </si>
+  <si>
+    <t>003900325962</t>
+  </si>
+  <si>
+    <t>TCNU6046154</t>
+  </si>
+  <si>
+    <t>DJSEAA3724063</t>
+  </si>
+  <si>
+    <t>7031987001</t>
+  </si>
+  <si>
+    <t>SH9AC9310800</t>
+  </si>
+  <si>
+    <t>EGHU3138233</t>
+  </si>
+  <si>
+    <t>DJSEAA3804642</t>
+  </si>
+  <si>
+    <t>7031991765</t>
+  </si>
+  <si>
+    <t>003900314952</t>
   </si>
 </sst>
 </file>
@@ -158,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -232,136 +340,216 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortTAC/Test.xlsx
+++ b/EvergreenPortTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="122">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,196 +32,352 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>CCLU7240577</t>
+    <t>RFCU4098919</t>
+  </si>
+  <si>
+    <t>EVER EAGLE</t>
+  </si>
+  <si>
+    <t>00136</t>
+  </si>
+  <si>
+    <t>DJSEAA3679470</t>
+  </si>
+  <si>
+    <t>7031980346</t>
+  </si>
+  <si>
+    <t>6200236060</t>
+  </si>
+  <si>
+    <t>TEMU4148408</t>
+  </si>
+  <si>
+    <t>CAPE AKRITAS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7031968322</t>
+  </si>
+  <si>
+    <t>235801266748</t>
+  </si>
+  <si>
+    <t>NYKU0753003</t>
+  </si>
+  <si>
+    <t>GUANG DONG BRIDGE</t>
+  </si>
+  <si>
+    <t>00031</t>
+  </si>
+  <si>
+    <t>DJSEAA3715740</t>
+  </si>
+  <si>
+    <t>7031987003</t>
+  </si>
+  <si>
+    <t>SH9AC9334700</t>
+  </si>
+  <si>
+    <t>TRHU1691652</t>
   </si>
   <si>
     <t>EVER SIGMA</t>
   </si>
   <si>
-    <t>00093</t>
-  </si>
-  <si>
-    <t>DJSEAA3619648</t>
-  </si>
-  <si>
-    <t>7031976165</t>
-  </si>
-  <si>
-    <t>6200233660</t>
-  </si>
-  <si>
-    <t>RFCU4098919</t>
-  </si>
-  <si>
-    <t>EVER EAGLE</t>
-  </si>
-  <si>
-    <t>00136</t>
-  </si>
-  <si>
-    <t>DJSEAA3679470</t>
-  </si>
-  <si>
-    <t>7031980346</t>
-  </si>
-  <si>
-    <t>6200236060</t>
-  </si>
-  <si>
-    <t>TEMU4148408</t>
-  </si>
-  <si>
-    <t>CAPE AKRITAS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7031968322</t>
-  </si>
-  <si>
-    <t>235801266748</t>
-  </si>
-  <si>
-    <t>NYKU0753003</t>
-  </si>
-  <si>
-    <t>GUANG DONG BRIDGE</t>
-  </si>
-  <si>
-    <t>00031</t>
-  </si>
-  <si>
-    <t>DJSEAA3715740</t>
-  </si>
-  <si>
-    <t>7031987003</t>
-  </si>
-  <si>
-    <t>SH9AC9334700</t>
-  </si>
-  <si>
-    <t>CCLU5227909</t>
+    <t>00021</t>
+  </si>
+  <si>
+    <t>DJSEAA3772782</t>
+  </si>
+  <si>
+    <t>7031986736</t>
+  </si>
+  <si>
+    <t>AMC0712635</t>
+  </si>
+  <si>
+    <t>TCNU6046154</t>
+  </si>
+  <si>
+    <t>DJSEAA3724063</t>
+  </si>
+  <si>
+    <t>7031987001</t>
+  </si>
+  <si>
+    <t>SH9AC9310800</t>
+  </si>
+  <si>
+    <t>BEAU4613137</t>
+  </si>
+  <si>
+    <t>EVER SUMMIT</t>
+  </si>
+  <si>
+    <t>00081</t>
+  </si>
+  <si>
+    <t>DJPDXA3850205</t>
+  </si>
+  <si>
+    <t>7180843794</t>
+  </si>
+  <si>
+    <t>6200615610</t>
+  </si>
+  <si>
+    <t>CBHU7073799</t>
+  </si>
+  <si>
+    <t>DJPDXA3850207</t>
+  </si>
+  <si>
+    <t>CCLU4763661</t>
+  </si>
+  <si>
+    <t>DJPDXA3850233</t>
+  </si>
+  <si>
+    <t>7180844416</t>
+  </si>
+  <si>
+    <t>6200615920</t>
+  </si>
+  <si>
+    <t>CSNU6421666</t>
+  </si>
+  <si>
+    <t>EVER STEADY</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>7032005399</t>
+  </si>
+  <si>
+    <t>6200721800</t>
+  </si>
+  <si>
+    <t>DFSU4191871</t>
+  </si>
+  <si>
+    <t>DJPDXA3850236</t>
+  </si>
+  <si>
+    <t>OOCU4912363</t>
+  </si>
+  <si>
+    <t>DJPDXA3850238</t>
+  </si>
+  <si>
+    <t>APZU4576837</t>
+  </si>
+  <si>
+    <t>7031998576</t>
+  </si>
+  <si>
+    <t>AOC0122785</t>
+  </si>
+  <si>
+    <t>EITU1762051</t>
   </si>
   <si>
     <t>EVER ENVOY</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>7032007708</t>
+  </si>
+  <si>
+    <t>EGLV091930058015</t>
+  </si>
+  <si>
+    <t>EMCU1346464</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>7031994410</t>
+  </si>
+  <si>
+    <t>235900168370</t>
+  </si>
+  <si>
+    <t>BEAU4538157</t>
+  </si>
+  <si>
+    <t>7032005887</t>
+  </si>
+  <si>
+    <t>EGLV091930058040</t>
+  </si>
+  <si>
+    <t>7032005888</t>
+  </si>
+  <si>
+    <t>PVCU2811338</t>
+  </si>
+  <si>
+    <t>DJSEAA3844097</t>
+  </si>
+  <si>
+    <t>7032001168</t>
+  </si>
+  <si>
+    <t>6200615730</t>
+  </si>
+  <si>
+    <t>EMCU1396038</t>
+  </si>
+  <si>
+    <t>00076</t>
+  </si>
+  <si>
+    <t>DJSEAA3843908</t>
+  </si>
+  <si>
+    <t>7032002299</t>
+  </si>
+  <si>
+    <t>003900630374</t>
+  </si>
+  <si>
+    <t>CMAU9047596</t>
+  </si>
+  <si>
+    <t>7032003543</t>
+  </si>
+  <si>
+    <t>NPCA006502</t>
+  </si>
+  <si>
+    <t>TCNU6648953</t>
+  </si>
+  <si>
+    <t>7032005886</t>
+  </si>
+  <si>
+    <t>EGLV091930058023</t>
+  </si>
+  <si>
+    <t>EGHU3138233</t>
+  </si>
+  <si>
     <t>00148</t>
   </si>
   <si>
-    <t>DJSEAA3780559</t>
-  </si>
-  <si>
-    <t>7031996365</t>
-  </si>
-  <si>
-    <t>6200716180</t>
-  </si>
-  <si>
-    <t>DTXU2015070</t>
+    <t>DJSEAA3804642</t>
+  </si>
+  <si>
+    <t>7031991765</t>
+  </si>
+  <si>
+    <t>003900314952</t>
+  </si>
+  <si>
+    <t>FSCU7116820</t>
+  </si>
+  <si>
+    <t>7032006682</t>
+  </si>
+  <si>
+    <t>EGLV091930058066</t>
+  </si>
+  <si>
+    <t>EITU1966712</t>
+  </si>
+  <si>
+    <t>7032006683</t>
+  </si>
+  <si>
+    <t>EGLV091930057957</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>7032005875</t>
+  </si>
+  <si>
+    <t>EGHU9101606</t>
+  </si>
+  <si>
+    <t>7032005890</t>
+  </si>
+  <si>
+    <t>EGLV091930058031</t>
+  </si>
+  <si>
+    <t>BMOU2677749</t>
   </si>
   <si>
     <t>EVER SHINE</t>
   </si>
   <si>
-    <t>00100</t>
-  </si>
-  <si>
-    <t>DJSEAA3750748</t>
-  </si>
-  <si>
-    <t>7031991721</t>
-  </si>
-  <si>
-    <t>6200715070</t>
-  </si>
-  <si>
-    <t>TRHU1691652</t>
-  </si>
-  <si>
-    <t>00021</t>
-  </si>
-  <si>
-    <t>DJSEAA3772782</t>
-  </si>
-  <si>
-    <t>7031986736</t>
-  </si>
-  <si>
-    <t>AMC0712635</t>
-  </si>
-  <si>
-    <t>EITU0186706</t>
-  </si>
-  <si>
-    <t>DJSEAA3775264</t>
-  </si>
-  <si>
-    <t>7031988696</t>
-  </si>
-  <si>
-    <t>003900304990</t>
-  </si>
-  <si>
-    <t>EGHU1025808</t>
-  </si>
-  <si>
-    <t>DJSEAA3779502</t>
-  </si>
-  <si>
-    <t>7031992682</t>
-  </si>
-  <si>
-    <t>003900493326</t>
-  </si>
-  <si>
-    <t>PVCU2812036</t>
-  </si>
-  <si>
-    <t>DJPDXA3768092</t>
-  </si>
-  <si>
-    <t>7180838971</t>
-  </si>
-  <si>
-    <t>6200614820</t>
-  </si>
-  <si>
-    <t>IMTU1044437</t>
-  </si>
-  <si>
-    <t>DJSEAA3737497</t>
-  </si>
-  <si>
-    <t>7031989208</t>
-  </si>
-  <si>
-    <t>003900325962</t>
-  </si>
-  <si>
-    <t>TCNU6046154</t>
-  </si>
-  <si>
-    <t>DJSEAA3724063</t>
-  </si>
-  <si>
-    <t>7031987001</t>
-  </si>
-  <si>
-    <t>SH9AC9310800</t>
-  </si>
-  <si>
-    <t>EGHU3138233</t>
-  </si>
-  <si>
-    <t>DJSEAA3804642</t>
-  </si>
-  <si>
-    <t>7031991765</t>
-  </si>
-  <si>
-    <t>003900314952</t>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>DJSEAA3852469</t>
+  </si>
+  <si>
+    <t>7032000810</t>
+  </si>
+  <si>
+    <t>AMC0721357</t>
+  </si>
+  <si>
+    <t>PVCU2811805</t>
+  </si>
+  <si>
+    <t>DJSEAA3858391</t>
+  </si>
+  <si>
+    <t>7032004955</t>
+  </si>
+  <si>
+    <t>6200719860</t>
+  </si>
+  <si>
+    <t>CCLU5298224</t>
+  </si>
+  <si>
+    <t>7032004258</t>
+  </si>
+  <si>
+    <t>6200787350</t>
+  </si>
+  <si>
+    <t>SKIU2146820</t>
+  </si>
+  <si>
+    <t>DJSEAA3861781</t>
+  </si>
+  <si>
+    <t>7032001176</t>
+  </si>
+  <si>
+    <t>NPCA006500</t>
+  </si>
+  <si>
+    <t>FSCU7259646</t>
+  </si>
+  <si>
+    <t>0203-081E</t>
+  </si>
+  <si>
+    <t>9077903688-01</t>
+  </si>
+  <si>
+    <t>COSU6193989120</t>
   </si>
 </sst>
 </file>
@@ -266,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -326,24 +482,24 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -377,179 +533,517 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
         <v>68</v>
       </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
         <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortTAC/Test.xlsx
+++ b/EvergreenPortTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="144">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -185,45 +185,42 @@
     <t>AOC0122785</t>
   </si>
   <si>
+    <t>EMCU1346464</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>7031994410</t>
+  </si>
+  <si>
+    <t>235900168370</t>
+  </si>
+  <si>
+    <t>BEAU4538157</t>
+  </si>
+  <si>
+    <t>EVER ENVOY</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>7032005887</t>
+  </si>
+  <si>
+    <t>EGLV091930058040</t>
+  </si>
+  <si>
     <t>EITU1762051</t>
   </si>
   <si>
-    <t>EVER ENVOY</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>7032007708</t>
+    <t>7032005888</t>
   </si>
   <si>
     <t>EGLV091930058015</t>
   </si>
   <si>
-    <t>EMCU1346464</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>7031994410</t>
-  </si>
-  <si>
-    <t>235900168370</t>
-  </si>
-  <si>
-    <t>BEAU4538157</t>
-  </si>
-  <si>
-    <t>7032005887</t>
-  </si>
-  <si>
-    <t>EGLV091930058040</t>
-  </si>
-  <si>
-    <t>7032005888</t>
-  </si>
-  <si>
     <t>PVCU2811338</t>
   </si>
   <si>
@@ -284,24 +281,6 @@
     <t>003900314952</t>
   </si>
   <si>
-    <t>FSCU7116820</t>
-  </si>
-  <si>
-    <t>7032006682</t>
-  </si>
-  <si>
-    <t>EGLV091930058066</t>
-  </si>
-  <si>
-    <t>EITU1966712</t>
-  </si>
-  <si>
-    <t>7032006683</t>
-  </si>
-  <si>
-    <t>EGLV091930057957</t>
-  </si>
-  <si>
     <t>148</t>
   </si>
   <si>
@@ -335,6 +314,36 @@
     <t>AMC0721357</t>
   </si>
   <si>
+    <t>TLLU4130143</t>
+  </si>
+  <si>
+    <t>7032011406</t>
+  </si>
+  <si>
+    <t>EGLV080900088859</t>
+  </si>
+  <si>
+    <t>EISU2237917</t>
+  </si>
+  <si>
+    <t>DJSEAA3875107</t>
+  </si>
+  <si>
+    <t>7032001379</t>
+  </si>
+  <si>
+    <t>003900599434</t>
+  </si>
+  <si>
+    <t>EGHU3115520</t>
+  </si>
+  <si>
+    <t>7031998271</t>
+  </si>
+  <si>
+    <t>235900168361</t>
+  </si>
+  <si>
     <t>PVCU2811805</t>
   </si>
   <si>
@@ -347,6 +356,24 @@
     <t>6200719860</t>
   </si>
   <si>
+    <t>MAGU5403512</t>
+  </si>
+  <si>
+    <t>7032011386</t>
+  </si>
+  <si>
+    <t>EGLV103900006464</t>
+  </si>
+  <si>
+    <t>DRYU9263649</t>
+  </si>
+  <si>
+    <t>7032011405</t>
+  </si>
+  <si>
+    <t>EGLV080900081307</t>
+  </si>
+  <si>
     <t>CCLU5298224</t>
   </si>
   <si>
@@ -356,6 +383,33 @@
     <t>6200787350</t>
   </si>
   <si>
+    <t>TCNU3831997</t>
+  </si>
+  <si>
+    <t>DJSEAA3871247</t>
+  </si>
+  <si>
+    <t>7032001374</t>
+  </si>
+  <si>
+    <t>003900569616</t>
+  </si>
+  <si>
+    <t>FSCU8773937</t>
+  </si>
+  <si>
+    <t>EVER STRONG</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7032009389</t>
+  </si>
+  <si>
+    <t>6200722840</t>
+  </si>
+  <si>
     <t>SKIU2146820</t>
   </si>
   <si>
@@ -378,6 +432,18 @@
   </si>
   <si>
     <t>COSU6193989120</t>
+  </si>
+  <si>
+    <t>EMCU6024809</t>
+  </si>
+  <si>
+    <t>DJSEAA3875101</t>
+  </si>
+  <si>
+    <t>7031998331</t>
+  </si>
+  <si>
+    <t>050900128697</t>
   </si>
 </sst>
 </file>
@@ -422,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -693,27 +759,27 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
         <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -733,10 +799,10 @@
         <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
@@ -750,300 +816,400 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31" t="s">
-        <v>121</v>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortTAC/Test.xlsx
+++ b/EvergreenPortTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -173,12 +173,84 @@
     <t>003900613798</t>
   </si>
   <si>
+    <t>BMOU3109677</t>
+  </si>
+  <si>
+    <t>014E</t>
+  </si>
+  <si>
+    <t>7032007418</t>
+  </si>
+  <si>
+    <t>003900501345</t>
+  </si>
+  <si>
+    <t>MAGU2351668</t>
+  </si>
+  <si>
+    <t>EVER LEGION</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>7032010038</t>
+  </si>
+  <si>
+    <t>235900232540</t>
+  </si>
+  <si>
+    <t>TRLU6663841</t>
+  </si>
+  <si>
+    <t>00101</t>
+  </si>
+  <si>
+    <t>DJSEAA3975696</t>
+  </si>
+  <si>
+    <t>7032018906</t>
+  </si>
+  <si>
+    <t>NPCA006743</t>
+  </si>
+  <si>
+    <t>EGHU9383557</t>
+  </si>
+  <si>
+    <t>DJSEAA3975977</t>
+  </si>
+  <si>
+    <t>7032013808</t>
+  </si>
+  <si>
+    <t>003900771300</t>
+  </si>
+  <si>
+    <t>TGHU9033363</t>
+  </si>
+  <si>
+    <t>DJSEAA3975900</t>
+  </si>
+  <si>
+    <t>7032013807</t>
+  </si>
+  <si>
+    <t>TCNU3074804</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7032018773</t>
+  </si>
+  <si>
+    <t>NPCA006744</t>
+  </si>
+  <si>
     <t>TGBU6079630</t>
   </si>
   <si>
-    <t>00101</t>
-  </si>
-  <si>
     <t>DJSEAA3970763</t>
   </si>
   <si>
@@ -197,51 +269,69 @@
     <t>235900168361</t>
   </si>
   <si>
-    <t>TLLU4182255</t>
-  </si>
-  <si>
-    <t>7032019670</t>
-  </si>
-  <si>
-    <t>EGLV091930097720</t>
-  </si>
-  <si>
-    <t>EITU1618363</t>
-  </si>
-  <si>
-    <t>7032020177</t>
-  </si>
-  <si>
-    <t>EGLV080900108451</t>
-  </si>
-  <si>
-    <t>ECMU4558359</t>
+    <t>ECMU4583921</t>
+  </si>
+  <si>
+    <t>DJSEAA3985450</t>
+  </si>
+  <si>
+    <t>7032018930</t>
+  </si>
+  <si>
+    <t>NPCA006777</t>
+  </si>
+  <si>
+    <t>TGBU7024490</t>
+  </si>
+  <si>
+    <t>DJSEAA3984535</t>
+  </si>
+  <si>
+    <t>7032013903</t>
+  </si>
+  <si>
+    <t>003900477924</t>
+  </si>
+  <si>
+    <t>EISU1722287</t>
+  </si>
+  <si>
+    <t>DJSEAA3984526</t>
+  </si>
+  <si>
+    <t>7032013442</t>
+  </si>
+  <si>
+    <t>003900613844</t>
+  </si>
+  <si>
+    <t>LTIU6058360</t>
+  </si>
+  <si>
+    <t>7032015003</t>
+  </si>
+  <si>
+    <t>003900598781</t>
+  </si>
+  <si>
+    <t>TCLU7869400</t>
+  </si>
+  <si>
+    <t>DJSEAA3986003</t>
+  </si>
+  <si>
+    <t>7032009306</t>
+  </si>
+  <si>
+    <t>003900651487</t>
+  </si>
+  <si>
+    <t>TGHU6339323</t>
   </si>
   <si>
     <t>VERMONT TRADER</t>
   </si>
   <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>7032005232</t>
-  </si>
-  <si>
-    <t>AOC0126169</t>
-  </si>
-  <si>
-    <t>APZU4449323</t>
-  </si>
-  <si>
-    <t>7032006820</t>
-  </si>
-  <si>
-    <t>AOC0124852</t>
-  </si>
-  <si>
-    <t>TGHU6339323</t>
-  </si>
-  <si>
     <t>06002</t>
   </si>
   <si>
@@ -287,16 +377,10 @@
     <t>7032009245</t>
   </si>
   <si>
-    <t>EISU1877165</t>
-  </si>
-  <si>
-    <t>DJSEAA3882160</t>
-  </si>
-  <si>
-    <t>7032001911</t>
-  </si>
-  <si>
-    <t>237900138272</t>
+    <t>EGHU1001679</t>
+  </si>
+  <si>
+    <t>DJSEAA3984517</t>
   </si>
 </sst>
 </file>
@@ -341,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -592,7 +676,7 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -601,144 +685,144 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
         <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
         <v>70</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
         <v>83</v>
@@ -752,10 +836,10 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>86</v>
@@ -769,42 +853,182 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortTAC/Test.xlsx
+++ b/EvergreenPortTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="133">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -143,210 +143,219 @@
     <t>AMC0721357</t>
   </si>
   <si>
-    <t>CAIU6099016</t>
+    <t>HMCU1105372</t>
+  </si>
+  <si>
+    <t>CAPE KORTIA</t>
+  </si>
+  <si>
+    <t>00014</t>
+  </si>
+  <si>
+    <t>DJSEAA3954746</t>
+  </si>
+  <si>
+    <t>7032007867</t>
+  </si>
+  <si>
+    <t>003900613798</t>
+  </si>
+  <si>
+    <t>BMOU3109677</t>
+  </si>
+  <si>
+    <t>014E</t>
+  </si>
+  <si>
+    <t>7032007418</t>
+  </si>
+  <si>
+    <t>003900501345</t>
+  </si>
+  <si>
+    <t>MAGU2351668</t>
+  </si>
+  <si>
+    <t>EVER LEGION</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>7032010038</t>
+  </si>
+  <si>
+    <t>235900232540</t>
+  </si>
+  <si>
+    <t>TRLU6663841</t>
+  </si>
+  <si>
+    <t>00101</t>
+  </si>
+  <si>
+    <t>DJSEAA3975696</t>
+  </si>
+  <si>
+    <t>7032018906</t>
+  </si>
+  <si>
+    <t>NPCA006743</t>
+  </si>
+  <si>
+    <t>EGHU9383557</t>
+  </si>
+  <si>
+    <t>DJSEAA3975977</t>
+  </si>
+  <si>
+    <t>7032013808</t>
+  </si>
+  <si>
+    <t>003900771300</t>
+  </si>
+  <si>
+    <t>TGHU9033363</t>
+  </si>
+  <si>
+    <t>DJSEAA3975900</t>
+  </si>
+  <si>
+    <t>7032013807</t>
+  </si>
+  <si>
+    <t>TCNU3074804</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7032018773</t>
+  </si>
+  <si>
+    <t>NPCA006744</t>
+  </si>
+  <si>
+    <t>TGBU6079630</t>
+  </si>
+  <si>
+    <t>DJSEAA3970763</t>
+  </si>
+  <si>
+    <t>7032013935</t>
+  </si>
+  <si>
+    <t>003900777286</t>
+  </si>
+  <si>
+    <t>EGHU3115520</t>
+  </si>
+  <si>
+    <t>7031998271</t>
+  </si>
+  <si>
+    <t>235900168361</t>
+  </si>
+  <si>
+    <t>ECMU4583921</t>
+  </si>
+  <si>
+    <t>DJSEAA3985450</t>
+  </si>
+  <si>
+    <t>7032018930</t>
+  </si>
+  <si>
+    <t>NPCA006777</t>
+  </si>
+  <si>
+    <t>TGBU7024490</t>
+  </si>
+  <si>
+    <t>DJSEAA3984535</t>
+  </si>
+  <si>
+    <t>7032013903</t>
+  </si>
+  <si>
+    <t>003900477924</t>
+  </si>
+  <si>
+    <t>EISU1722287</t>
+  </si>
+  <si>
+    <t>DJSEAA3984526</t>
+  </si>
+  <si>
+    <t>7032013442</t>
+  </si>
+  <si>
+    <t>003900613844</t>
+  </si>
+  <si>
+    <t>FCIU7313352</t>
+  </si>
+  <si>
+    <t>EVER URANUS</t>
+  </si>
+  <si>
+    <t>00130</t>
+  </si>
+  <si>
+    <t>DJSEAA3987887</t>
+  </si>
+  <si>
+    <t>7032018434</t>
+  </si>
+  <si>
+    <t>003900936848</t>
+  </si>
+  <si>
+    <t>LTIU6058360</t>
+  </si>
+  <si>
+    <t>7032015003</t>
+  </si>
+  <si>
+    <t>003900598781</t>
+  </si>
+  <si>
+    <t>TCLU7869400</t>
+  </si>
+  <si>
+    <t>DJSEAA3986003</t>
+  </si>
+  <si>
+    <t>7032009306</t>
+  </si>
+  <si>
+    <t>003900651487</t>
+  </si>
+  <si>
+    <t>TGHU6339323</t>
+  </si>
+  <si>
+    <t>VERMONT TRADER</t>
+  </si>
+  <si>
+    <t>06002</t>
+  </si>
+  <si>
+    <t>DJSEAA3919868</t>
+  </si>
+  <si>
+    <t>7032014703</t>
+  </si>
+  <si>
+    <t>CNZY182305</t>
+  </si>
+  <si>
+    <t>PVCU2811765</t>
   </si>
   <si>
     <t>EVER STRONG</t>
   </si>
   <si>
-    <t>7032020029</t>
-  </si>
-  <si>
-    <t>EGLV140900199968</t>
-  </si>
-  <si>
-    <t>HMCU1105372</t>
-  </si>
-  <si>
-    <t>CAPE KORTIA</t>
-  </si>
-  <si>
-    <t>00014</t>
-  </si>
-  <si>
-    <t>DJSEAA3954746</t>
-  </si>
-  <si>
-    <t>7032007867</t>
-  </si>
-  <si>
-    <t>003900613798</t>
-  </si>
-  <si>
-    <t>BMOU3109677</t>
-  </si>
-  <si>
-    <t>014E</t>
-  </si>
-  <si>
-    <t>7032007418</t>
-  </si>
-  <si>
-    <t>003900501345</t>
-  </si>
-  <si>
-    <t>MAGU2351668</t>
-  </si>
-  <si>
-    <t>EVER LEGION</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>7032010038</t>
-  </si>
-  <si>
-    <t>235900232540</t>
-  </si>
-  <si>
-    <t>TRLU6663841</t>
-  </si>
-  <si>
-    <t>00101</t>
-  </si>
-  <si>
-    <t>DJSEAA3975696</t>
-  </si>
-  <si>
-    <t>7032018906</t>
-  </si>
-  <si>
-    <t>NPCA006743</t>
-  </si>
-  <si>
-    <t>EGHU9383557</t>
-  </si>
-  <si>
-    <t>DJSEAA3975977</t>
-  </si>
-  <si>
-    <t>7032013808</t>
-  </si>
-  <si>
-    <t>003900771300</t>
-  </si>
-  <si>
-    <t>TGHU9033363</t>
-  </si>
-  <si>
-    <t>DJSEAA3975900</t>
-  </si>
-  <si>
-    <t>7032013807</t>
-  </si>
-  <si>
-    <t>TCNU3074804</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7032018773</t>
-  </si>
-  <si>
-    <t>NPCA006744</t>
-  </si>
-  <si>
-    <t>TGBU6079630</t>
-  </si>
-  <si>
-    <t>DJSEAA3970763</t>
-  </si>
-  <si>
-    <t>7032013935</t>
-  </si>
-  <si>
-    <t>003900777286</t>
-  </si>
-  <si>
-    <t>EGHU3115520</t>
-  </si>
-  <si>
-    <t>7031998271</t>
-  </si>
-  <si>
-    <t>235900168361</t>
-  </si>
-  <si>
-    <t>ECMU4583921</t>
-  </si>
-  <si>
-    <t>DJSEAA3985450</t>
-  </si>
-  <si>
-    <t>7032018930</t>
-  </si>
-  <si>
-    <t>NPCA006777</t>
-  </si>
-  <si>
-    <t>TGBU7024490</t>
-  </si>
-  <si>
-    <t>DJSEAA3984535</t>
-  </si>
-  <si>
-    <t>7032013903</t>
-  </si>
-  <si>
-    <t>003900477924</t>
-  </si>
-  <si>
-    <t>EISU1722287</t>
-  </si>
-  <si>
-    <t>DJSEAA3984526</t>
-  </si>
-  <si>
-    <t>7032013442</t>
-  </si>
-  <si>
-    <t>003900613844</t>
-  </si>
-  <si>
-    <t>LTIU6058360</t>
-  </si>
-  <si>
-    <t>7032015003</t>
-  </si>
-  <si>
-    <t>003900598781</t>
-  </si>
-  <si>
-    <t>TCLU7869400</t>
-  </si>
-  <si>
-    <t>DJSEAA3986003</t>
-  </si>
-  <si>
-    <t>7032009306</t>
-  </si>
-  <si>
-    <t>003900651487</t>
-  </si>
-  <si>
-    <t>TGHU6339323</t>
-  </si>
-  <si>
-    <t>VERMONT TRADER</t>
-  </si>
-  <si>
-    <t>06002</t>
-  </si>
-  <si>
-    <t>DJSEAA3919868</t>
-  </si>
-  <si>
-    <t>7032014703</t>
-  </si>
-  <si>
-    <t>CNZY182305</t>
-  </si>
-  <si>
-    <t>PVCU2811765</t>
-  </si>
-  <si>
     <t>00083</t>
   </si>
   <si>
@@ -381,6 +390,27 @@
   </si>
   <si>
     <t>DJSEAA3984517</t>
+  </si>
+  <si>
+    <t>HMCU9019727</t>
+  </si>
+  <si>
+    <t>7032026518</t>
+  </si>
+  <si>
+    <t>080900123557</t>
+  </si>
+  <si>
+    <t>HMCU9058600</t>
+  </si>
+  <si>
+    <t>7032026516</t>
+  </si>
+  <si>
+    <t>BMOU4881849</t>
+  </si>
+  <si>
+    <t>7032026517</t>
   </si>
 </sst>
 </file>
@@ -425,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -639,30 +669,30 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -676,27 +706,27 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -705,21 +735,21 @@
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
@@ -739,7 +769,7 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
@@ -748,27 +778,27 @@
         <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
       </c>
       <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -779,10 +809,10 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
         <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
       </c>
       <c r="E18" t="s">
         <v>76</v>
@@ -796,33 +826,33 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>79</v>
       </c>
       <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
         <v>80</v>
-      </c>
-      <c r="F19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>83</v>
       </c>
       <c r="E20" t="s">
         <v>83</v>
@@ -839,7 +869,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>86</v>
@@ -859,7 +889,7 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>90</v>
@@ -876,159 +906,219 @@
         <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortTAC/Test.xlsx
+++ b/EvergreenPortTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -143,6 +143,30 @@
     <t>AMC0721357</t>
   </si>
   <si>
+    <t>CCLU4722220</t>
+  </si>
+  <si>
+    <t>00207</t>
+  </si>
+  <si>
+    <t>DJSEAA4007735</t>
+  </si>
+  <si>
+    <t>7032014443</t>
+  </si>
+  <si>
+    <t>6204914290</t>
+  </si>
+  <si>
+    <t>TEMU6984979</t>
+  </si>
+  <si>
+    <t>7032027243</t>
+  </si>
+  <si>
+    <t>EGLV080900123743</t>
+  </si>
+  <si>
     <t>HMCU1105372</t>
   </si>
   <si>
@@ -188,6 +212,30 @@
     <t>235900232540</t>
   </si>
   <si>
+    <t>SEGU5500923</t>
+  </si>
+  <si>
+    <t>7032027246</t>
+  </si>
+  <si>
+    <t>091930120641</t>
+  </si>
+  <si>
+    <t>TEMU5580777</t>
+  </si>
+  <si>
+    <t>00021</t>
+  </si>
+  <si>
+    <t>DJSEAA4000159</t>
+  </si>
+  <si>
+    <t>7032014429</t>
+  </si>
+  <si>
+    <t>AOC0129056</t>
+  </si>
+  <si>
     <t>TRLU6663841</t>
   </si>
   <si>
@@ -293,6 +341,18 @@
     <t>003900613844</t>
   </si>
   <si>
+    <t>CAIU6085579</t>
+  </si>
+  <si>
+    <t>DJSEAA4002110</t>
+  </si>
+  <si>
+    <t>7032013727</t>
+  </si>
+  <si>
+    <t>003900593568</t>
+  </si>
+  <si>
     <t>FCIU7313352</t>
   </si>
   <si>
@@ -320,18 +380,6 @@
     <t>003900598781</t>
   </si>
   <si>
-    <t>TCLU7869400</t>
-  </si>
-  <si>
-    <t>DJSEAA3986003</t>
-  </si>
-  <si>
-    <t>7032009306</t>
-  </si>
-  <si>
-    <t>003900651487</t>
-  </si>
-  <si>
     <t>TGHU6339323</t>
   </si>
   <si>
@@ -401,6 +449,15 @@
     <t>080900123557</t>
   </si>
   <si>
+    <t>EGHU9313966</t>
+  </si>
+  <si>
+    <t>7032027244</t>
+  </si>
+  <si>
+    <t>EGLV149901010463</t>
+  </si>
+  <si>
     <t>HMCU9058600</t>
   </si>
   <si>
@@ -411,6 +468,12 @@
   </si>
   <si>
     <t>7032026517</t>
+  </si>
+  <si>
+    <t>FOLU3699332</t>
+  </si>
+  <si>
+    <t>DJSEAA4007741</t>
   </si>
 </sst>
 </file>
@@ -455,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -666,133 +729,133 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
         <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
         <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
       </c>
       <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
         <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
         <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
         <v>70</v>
       </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>71</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
       </c>
       <c r="E17" t="s">
         <v>72</v>
@@ -809,316 +872,436 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
         <v>82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
         <v>96</v>
-      </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
         <v>99</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
         <v>102</v>
       </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>103</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>104</v>
-      </c>
-      <c r="F25" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
         <v>106</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>107</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>108</v>
-      </c>
-      <c r="D26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" t="s">
         <v>112</v>
-      </c>
-      <c r="B27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
         <v>118</v>
-      </c>
-      <c r="B28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
         <v>124</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
       </c>
       <c r="D30" t="s">
         <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
         <v>18</v>
       </c>
-      <c r="D33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" t="s">
-        <v>128</v>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortTAC/Test.xlsx
+++ b/EvergreenPortTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="142">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -125,355 +125,319 @@
     <t>EGLV091930058031</t>
   </si>
   <si>
-    <t>BMOU2677749</t>
+    <t>CCLU4886455</t>
   </si>
   <si>
     <t>EVER SHINE</t>
   </si>
   <si>
+    <t>00101</t>
+  </si>
+  <si>
+    <t>DJPDXA4008704</t>
+  </si>
+  <si>
+    <t>7180856560</t>
+  </si>
+  <si>
+    <t>6200788510</t>
+  </si>
+  <si>
+    <t>TCNU5676565</t>
+  </si>
+  <si>
+    <t>DJPDXA4008747</t>
+  </si>
+  <si>
+    <t>7180856591</t>
+  </si>
+  <si>
+    <t>6200788520</t>
+  </si>
+  <si>
+    <t>MAGU2351668</t>
+  </si>
+  <si>
+    <t>EVER LEGION</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>7032010038</t>
+  </si>
+  <si>
+    <t>235900232540</t>
+  </si>
+  <si>
+    <t>SEGU5500923</t>
+  </si>
+  <si>
+    <t>7032027246</t>
+  </si>
+  <si>
+    <t>091930120641</t>
+  </si>
+  <si>
+    <t>TEMU5580777</t>
+  </si>
+  <si>
+    <t>00021</t>
+  </si>
+  <si>
+    <t>DJSEAA4000159</t>
+  </si>
+  <si>
+    <t>7032014429</t>
+  </si>
+  <si>
+    <t>AOC0129056</t>
+  </si>
+  <si>
+    <t>EGHU9383557</t>
+  </si>
+  <si>
+    <t>DJSEAA3975977</t>
+  </si>
+  <si>
+    <t>7032013808</t>
+  </si>
+  <si>
+    <t>003900771300</t>
+  </si>
+  <si>
+    <t>EGHU3115520</t>
+  </si>
+  <si>
+    <t>7031998271</t>
+  </si>
+  <si>
+    <t>235900168361</t>
+  </si>
+  <si>
+    <t>EISU1722287</t>
+  </si>
+  <si>
+    <t>DJSEAA3984526</t>
+  </si>
+  <si>
+    <t>7032013442</t>
+  </si>
+  <si>
+    <t>003900613844</t>
+  </si>
+  <si>
+    <t>FCIU7313352</t>
+  </si>
+  <si>
+    <t>EVER URANUS</t>
+  </si>
+  <si>
+    <t>00130</t>
+  </si>
+  <si>
+    <t>DJSEAA3987887</t>
+  </si>
+  <si>
+    <t>7032018434</t>
+  </si>
+  <si>
+    <t>003900936848</t>
+  </si>
+  <si>
+    <t>LTIU6058360</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7032015003</t>
+  </si>
+  <si>
+    <t>003900598781</t>
+  </si>
+  <si>
+    <t>PVCU2811765</t>
+  </si>
+  <si>
+    <t>EVER STRONG</t>
+  </si>
+  <si>
+    <t>00083</t>
+  </si>
+  <si>
+    <t>DJSEAA3881903</t>
+  </si>
+  <si>
+    <t>7032009244</t>
+  </si>
+  <si>
+    <t>6200787910</t>
+  </si>
+  <si>
+    <t>CCLU4611653</t>
+  </si>
+  <si>
+    <t>VERMONT TRADER</t>
+  </si>
+  <si>
     <t>00002</t>
   </si>
   <si>
-    <t>DJSEAA3852469</t>
-  </si>
-  <si>
-    <t>7032000810</t>
-  </si>
-  <si>
-    <t>AMC0721357</t>
-  </si>
-  <si>
-    <t>CCLU4722220</t>
-  </si>
-  <si>
-    <t>00207</t>
-  </si>
-  <si>
-    <t>DJSEAA4007735</t>
-  </si>
-  <si>
-    <t>7032014443</t>
-  </si>
-  <si>
-    <t>6204914290</t>
-  </si>
-  <si>
-    <t>TEMU6984979</t>
-  </si>
-  <si>
-    <t>7032027243</t>
-  </si>
-  <si>
-    <t>EGLV080900123743</t>
-  </si>
-  <si>
-    <t>HMCU1105372</t>
+    <t>DJSEAA3918933</t>
+  </si>
+  <si>
+    <t>7032009292</t>
+  </si>
+  <si>
+    <t>6206812420</t>
+  </si>
+  <si>
+    <t>DJSEAA3881914</t>
+  </si>
+  <si>
+    <t>7032009245</t>
+  </si>
+  <si>
+    <t>EGHU1001679</t>
+  </si>
+  <si>
+    <t>DJSEAA3984517</t>
+  </si>
+  <si>
+    <t>HMCU9019727</t>
+  </si>
+  <si>
+    <t>7032026518</t>
+  </si>
+  <si>
+    <t>080900123557</t>
+  </si>
+  <si>
+    <t>EGHU1021000</t>
+  </si>
+  <si>
+    <t>7180854078</t>
+  </si>
+  <si>
+    <t>003900876829</t>
+  </si>
+  <si>
+    <t>EGHU9313966</t>
+  </si>
+  <si>
+    <t>7032027244</t>
+  </si>
+  <si>
+    <t>EGLV149901010463</t>
+  </si>
+  <si>
+    <t>CCLU4792417</t>
+  </si>
+  <si>
+    <t>DJPDXA4028363</t>
+  </si>
+  <si>
+    <t>7180859740</t>
+  </si>
+  <si>
+    <t>6200788860</t>
+  </si>
+  <si>
+    <t>HMCU9058600</t>
+  </si>
+  <si>
+    <t>7032026516</t>
+  </si>
+  <si>
+    <t>APZU4510887</t>
   </si>
   <si>
     <t>CAPE KORTIA</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>7032010035</t>
+  </si>
+  <si>
+    <t>HKA1776767</t>
+  </si>
+  <si>
+    <t>EITU0462851</t>
+  </si>
+  <si>
+    <t>7032029941</t>
+  </si>
+  <si>
+    <t>EGLV082900051439</t>
+  </si>
+  <si>
+    <t>YMMU4020656</t>
+  </si>
+  <si>
+    <t>SOFIA EXPRESS</t>
+  </si>
+  <si>
+    <t>052E</t>
+  </si>
+  <si>
+    <t>7032013522</t>
+  </si>
+  <si>
+    <t>W209126632</t>
+  </si>
+  <si>
+    <t>FSCU4526461</t>
+  </si>
+  <si>
+    <t>NAGOYA EXPRESS</t>
+  </si>
+  <si>
     <t>00014</t>
   </si>
   <si>
-    <t>DJSEAA3954746</t>
-  </si>
-  <si>
-    <t>7032007867</t>
-  </si>
-  <si>
-    <t>003900613798</t>
-  </si>
-  <si>
-    <t>BMOU3109677</t>
-  </si>
-  <si>
-    <t>014E</t>
-  </si>
-  <si>
-    <t>7032007418</t>
-  </si>
-  <si>
-    <t>003900501345</t>
-  </si>
-  <si>
-    <t>MAGU2351668</t>
-  </si>
-  <si>
-    <t>EVER LEGION</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>7032010038</t>
-  </si>
-  <si>
-    <t>235900232540</t>
-  </si>
-  <si>
-    <t>SEGU5500923</t>
-  </si>
-  <si>
-    <t>7032027246</t>
-  </si>
-  <si>
-    <t>091930120641</t>
-  </si>
-  <si>
-    <t>TEMU5580777</t>
-  </si>
-  <si>
-    <t>00021</t>
-  </si>
-  <si>
-    <t>DJSEAA4000159</t>
-  </si>
-  <si>
-    <t>7032014429</t>
-  </si>
-  <si>
-    <t>AOC0129056</t>
-  </si>
-  <si>
-    <t>TRLU6663841</t>
-  </si>
-  <si>
-    <t>00101</t>
-  </si>
-  <si>
-    <t>DJSEAA3975696</t>
-  </si>
-  <si>
-    <t>7032018906</t>
-  </si>
-  <si>
-    <t>NPCA006743</t>
-  </si>
-  <si>
-    <t>EGHU9383557</t>
-  </si>
-  <si>
-    <t>DJSEAA3975977</t>
-  </si>
-  <si>
-    <t>7032013808</t>
-  </si>
-  <si>
-    <t>003900771300</t>
-  </si>
-  <si>
-    <t>TGHU9033363</t>
-  </si>
-  <si>
-    <t>DJSEAA3975900</t>
-  </si>
-  <si>
-    <t>7032013807</t>
-  </si>
-  <si>
-    <t>TCNU3074804</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7032018773</t>
-  </si>
-  <si>
-    <t>NPCA006744</t>
-  </si>
-  <si>
-    <t>TGBU6079630</t>
-  </si>
-  <si>
-    <t>DJSEAA3970763</t>
-  </si>
-  <si>
-    <t>7032013935</t>
-  </si>
-  <si>
-    <t>003900777286</t>
-  </si>
-  <si>
-    <t>EGHU3115520</t>
-  </si>
-  <si>
-    <t>7031998271</t>
-  </si>
-  <si>
-    <t>235900168361</t>
-  </si>
-  <si>
-    <t>ECMU4583921</t>
-  </si>
-  <si>
-    <t>DJSEAA3985450</t>
-  </si>
-  <si>
-    <t>7032018930</t>
-  </si>
-  <si>
-    <t>NPCA006777</t>
-  </si>
-  <si>
-    <t>TGBU7024490</t>
-  </si>
-  <si>
-    <t>DJSEAA3984535</t>
-  </si>
-  <si>
-    <t>7032013903</t>
-  </si>
-  <si>
-    <t>003900477924</t>
-  </si>
-  <si>
-    <t>EISU1722287</t>
-  </si>
-  <si>
-    <t>DJSEAA3984526</t>
-  </si>
-  <si>
-    <t>7032013442</t>
-  </si>
-  <si>
-    <t>003900613844</t>
-  </si>
-  <si>
-    <t>CAIU6085579</t>
-  </si>
-  <si>
-    <t>DJSEAA4002110</t>
-  </si>
-  <si>
-    <t>7032013727</t>
-  </si>
-  <si>
-    <t>003900593568</t>
-  </si>
-  <si>
-    <t>FCIU7313352</t>
-  </si>
-  <si>
-    <t>EVER URANUS</t>
-  </si>
-  <si>
-    <t>00130</t>
-  </si>
-  <si>
-    <t>DJSEAA3987887</t>
-  </si>
-  <si>
-    <t>7032018434</t>
-  </si>
-  <si>
-    <t>003900936848</t>
-  </si>
-  <si>
-    <t>LTIU6058360</t>
-  </si>
-  <si>
-    <t>7032015003</t>
-  </si>
-  <si>
-    <t>003900598781</t>
-  </si>
-  <si>
-    <t>TGHU6339323</t>
-  </si>
-  <si>
-    <t>VERMONT TRADER</t>
-  </si>
-  <si>
-    <t>06002</t>
-  </si>
-  <si>
-    <t>DJSEAA3919868</t>
-  </si>
-  <si>
-    <t>7032014703</t>
-  </si>
-  <si>
-    <t>CNZY182305</t>
-  </si>
-  <si>
-    <t>PVCU2811765</t>
-  </si>
-  <si>
-    <t>EVER STRONG</t>
-  </si>
-  <si>
-    <t>00083</t>
-  </si>
-  <si>
-    <t>DJSEAA3881903</t>
-  </si>
-  <si>
-    <t>7032009244</t>
-  </si>
-  <si>
-    <t>6200787910</t>
-  </si>
-  <si>
-    <t>CCLU4611653</t>
-  </si>
-  <si>
-    <t>DJSEAA3918933</t>
-  </si>
-  <si>
-    <t>7032009292</t>
-  </si>
-  <si>
-    <t>6206812420</t>
-  </si>
-  <si>
-    <t>DJSEAA3881914</t>
-  </si>
-  <si>
-    <t>7032009245</t>
-  </si>
-  <si>
-    <t>EGHU1001679</t>
-  </si>
-  <si>
-    <t>DJSEAA3984517</t>
-  </si>
-  <si>
-    <t>HMCU9019727</t>
-  </si>
-  <si>
-    <t>7032026518</t>
-  </si>
-  <si>
-    <t>080900123557</t>
-  </si>
-  <si>
-    <t>EGHU9313966</t>
-  </si>
-  <si>
-    <t>7032027244</t>
-  </si>
-  <si>
-    <t>EGLV149901010463</t>
-  </si>
-  <si>
-    <t>HMCU9058600</t>
-  </si>
-  <si>
-    <t>7032026516</t>
-  </si>
-  <si>
-    <t>BMOU4881849</t>
-  </si>
-  <si>
-    <t>7032026517</t>
-  </si>
-  <si>
-    <t>FOLU3699332</t>
-  </si>
-  <si>
-    <t>DJSEAA4007741</t>
+    <t>DJSEAA4020528</t>
+  </si>
+  <si>
+    <t>7032005567</t>
+  </si>
+  <si>
+    <t>BO1190383673</t>
+  </si>
+  <si>
+    <t>TRLU9375670</t>
+  </si>
+  <si>
+    <t>00031</t>
+  </si>
+  <si>
+    <t>DJSEAA4029241</t>
+  </si>
+  <si>
+    <t>7032022913</t>
+  </si>
+  <si>
+    <t>AMC0733186</t>
+  </si>
+  <si>
+    <t>CCLU4829202</t>
+  </si>
+  <si>
+    <t>DJPDXA4028373</t>
+  </si>
+  <si>
+    <t>APZU4525320</t>
+  </si>
+  <si>
+    <t>DJSEAA4011532</t>
+  </si>
+  <si>
+    <t>7032022909</t>
+  </si>
+  <si>
+    <t>NPCA006812</t>
   </si>
 </sst>
 </file>
@@ -518,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -732,187 +696,187 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
         <v>61</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
         <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
         <v>69</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
         <v>74</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
         <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
         <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
       </c>
       <c r="D20" t="s">
         <v>84</v>
@@ -921,67 +885,67 @@
         <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -992,316 +956,236 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
         <v>98</v>
       </c>
       <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
         <v>99</v>
-      </c>
-      <c r="F24" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
         <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" t="s">
         <v>109</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" t="s">
-        <v>153</v>
-      </c>
-      <c r="E39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortTAC/Test.xlsx
+++ b/EvergreenPortTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="128">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -74,145 +74,103 @@
     <t>003900598781</t>
   </si>
   <si>
-    <t>PVCU2811765</t>
+    <t>CCLU4611653</t>
+  </si>
+  <si>
+    <t>VERMONT TRADER</t>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>DJSEAA3918933</t>
+  </si>
+  <si>
+    <t>7032009292</t>
+  </si>
+  <si>
+    <t>6206812420</t>
+  </si>
+  <si>
+    <t>EITU0462851</t>
+  </si>
+  <si>
+    <t>7032029941</t>
+  </si>
+  <si>
+    <t>EGLV082900051439</t>
+  </si>
+  <si>
+    <t>TRLU9375670</t>
+  </si>
+  <si>
+    <t>00031</t>
+  </si>
+  <si>
+    <t>DJSEAA4029241</t>
+  </si>
+  <si>
+    <t>7032022913</t>
+  </si>
+  <si>
+    <t>AMC0733186</t>
+  </si>
+  <si>
+    <t>EMCU9883958</t>
+  </si>
+  <si>
+    <t>EVER URANUS</t>
+  </si>
+  <si>
+    <t>7032032330</t>
+  </si>
+  <si>
+    <t>EGLV149901138869</t>
+  </si>
+  <si>
+    <t>DRYU9802334</t>
+  </si>
+  <si>
+    <t>EVER SUMMIT</t>
+  </si>
+  <si>
+    <t>00082</t>
+  </si>
+  <si>
+    <t>DJSEAA4043718</t>
+  </si>
+  <si>
+    <t>7032024234</t>
+  </si>
+  <si>
+    <t>003900771628</t>
+  </si>
+  <si>
+    <t>TCNU6889164</t>
+  </si>
+  <si>
+    <t>DJPDXA4084962</t>
+  </si>
+  <si>
+    <t>7180862523</t>
+  </si>
+  <si>
+    <t>6206863930</t>
+  </si>
+  <si>
+    <t>EGHU9364027</t>
   </si>
   <si>
     <t>EVER STRONG</t>
   </si>
   <si>
-    <t>00083</t>
-  </si>
-  <si>
-    <t>DJSEAA3881903</t>
-  </si>
-  <si>
-    <t>7032009244</t>
-  </si>
-  <si>
-    <t>6200787910</t>
-  </si>
-  <si>
-    <t>CCLU4611653</t>
-  </si>
-  <si>
-    <t>VERMONT TRADER</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>DJSEAA3918933</t>
-  </si>
-  <si>
-    <t>7032009292</t>
-  </si>
-  <si>
-    <t>6206812420</t>
-  </si>
-  <si>
-    <t>DJSEAA3881914</t>
-  </si>
-  <si>
-    <t>7032009245</t>
-  </si>
-  <si>
-    <t>EGHU1037624</t>
-  </si>
-  <si>
-    <t>EVER SUMMIT</t>
-  </si>
-  <si>
-    <t>00082</t>
-  </si>
-  <si>
-    <t>DJSEAA4042981</t>
-  </si>
-  <si>
-    <t>7032023227</t>
-  </si>
-  <si>
-    <t>003900865754</t>
-  </si>
-  <si>
-    <t>EITU0462851</t>
-  </si>
-  <si>
-    <t>7032029941</t>
-  </si>
-  <si>
-    <t>EGLV082900051439</t>
-  </si>
-  <si>
-    <t>TCLU5735059</t>
-  </si>
-  <si>
-    <t>DJSEAA4063108</t>
-  </si>
-  <si>
-    <t>7032020427</t>
-  </si>
-  <si>
-    <t>QDGS088543</t>
-  </si>
-  <si>
-    <t>TRLU9375670</t>
-  </si>
-  <si>
-    <t>00031</t>
-  </si>
-  <si>
-    <t>DJSEAA4029241</t>
-  </si>
-  <si>
-    <t>7032022913</t>
-  </si>
-  <si>
-    <t>AMC0733186</t>
-  </si>
-  <si>
-    <t>EMCU9883958</t>
-  </si>
-  <si>
-    <t>EVER URANUS</t>
-  </si>
-  <si>
-    <t>7032032330</t>
-  </si>
-  <si>
-    <t>EGLV149901138869</t>
-  </si>
-  <si>
-    <t>DRYU9802334</t>
-  </si>
-  <si>
-    <t>DJSEAA4043718</t>
-  </si>
-  <si>
-    <t>7032024234</t>
-  </si>
-  <si>
-    <t>003900771628</t>
-  </si>
-  <si>
-    <t>EITU0191030</t>
-  </si>
-  <si>
-    <t>7032037229</t>
-  </si>
-  <si>
-    <t>EGLV140900338178</t>
-  </si>
-  <si>
-    <t>TCNU6889164</t>
-  </si>
-  <si>
-    <t>DJPDXA4084962</t>
-  </si>
-  <si>
-    <t>7180862523</t>
-  </si>
-  <si>
-    <t>6206863930</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>7032032390</t>
+  </si>
+  <si>
+    <t>003901100816</t>
   </si>
   <si>
     <t>DRYU2584035</t>
@@ -233,43 +191,82 @@
     <t>003901019016</t>
   </si>
   <si>
-    <t>EGHU9166633</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>7032024797</t>
-  </si>
-  <si>
-    <t>003900778941</t>
-  </si>
-  <si>
-    <t>APZU3821143</t>
+    <t>EISU1860120</t>
+  </si>
+  <si>
+    <t>EVER ETHIC</t>
+  </si>
+  <si>
+    <t>00132</t>
+  </si>
+  <si>
+    <t>DJSEAA4139052</t>
+  </si>
+  <si>
+    <t>7032035432</t>
+  </si>
+  <si>
+    <t>003901232241</t>
+  </si>
+  <si>
+    <t>FCIU9981849</t>
+  </si>
+  <si>
+    <t>DJPDXA4123155</t>
+  </si>
+  <si>
+    <t>7180862608</t>
+  </si>
+  <si>
+    <t>003901031920</t>
+  </si>
+  <si>
+    <t>TCNU5209344</t>
+  </si>
+  <si>
+    <t>10077</t>
+  </si>
+  <si>
+    <t>DJSEAA4114189</t>
+  </si>
+  <si>
+    <t>7032030033</t>
+  </si>
+  <si>
+    <t>CNZY184321</t>
+  </si>
+  <si>
+    <t>CBHU7042231</t>
+  </si>
+  <si>
+    <t>DJPDXA4115175</t>
+  </si>
+  <si>
+    <t>7180865489</t>
+  </si>
+  <si>
+    <t>6212300490</t>
+  </si>
+  <si>
+    <t>APHU6935300</t>
+  </si>
+  <si>
+    <t>DJSEAA4114131</t>
+  </si>
+  <si>
+    <t>MAGU2389149</t>
   </si>
   <si>
     <t>00021</t>
   </si>
   <si>
-    <t>DJSEAA4076372</t>
-  </si>
-  <si>
-    <t>7032008003</t>
-  </si>
-  <si>
-    <t>AMC0726727</t>
-  </si>
-  <si>
-    <t>TCKU2439689</t>
-  </si>
-  <si>
-    <t>DJSEAA4102218</t>
-  </si>
-  <si>
-    <t>7032030836</t>
-  </si>
-  <si>
-    <t>6212300370</t>
+    <t>DJSEAA4139357</t>
+  </si>
+  <si>
+    <t>7032024110</t>
+  </si>
+  <si>
+    <t>050900314105</t>
   </si>
   <si>
     <t>TLLU4058136</t>
@@ -287,6 +284,81 @@
     <t>6205021260</t>
   </si>
   <si>
+    <t>OOCU4915336</t>
+  </si>
+  <si>
+    <t>DJPDXA4129595</t>
+  </si>
+  <si>
+    <t>7180865415</t>
+  </si>
+  <si>
+    <t>6212300080</t>
+  </si>
+  <si>
+    <t>TGHU0307519</t>
+  </si>
+  <si>
+    <t>00084</t>
+  </si>
+  <si>
+    <t>DJSEAA4115269</t>
+  </si>
+  <si>
+    <t>7032030901</t>
+  </si>
+  <si>
+    <t>003901061861</t>
+  </si>
+  <si>
+    <t>FSCU4969990</t>
+  </si>
+  <si>
+    <t>7032039424</t>
+  </si>
+  <si>
+    <t>EGLV080900166671</t>
+  </si>
+  <si>
+    <t>EMCU9849892</t>
+  </si>
+  <si>
+    <t>7032039425</t>
+  </si>
+  <si>
+    <t>EGLV149901262071</t>
+  </si>
+  <si>
+    <t>APHU6901574</t>
+  </si>
+  <si>
+    <t>DJSEAA4115553</t>
+  </si>
+  <si>
+    <t>7032033853</t>
+  </si>
+  <si>
+    <t>NPFB503537</t>
+  </si>
+  <si>
+    <t>CAIU4052489</t>
+  </si>
+  <si>
+    <t>DJSEAA4115632</t>
+  </si>
+  <si>
+    <t>7032031734</t>
+  </si>
+  <si>
+    <t>AJD0298307</t>
+  </si>
+  <si>
+    <t>CCLU4979619</t>
+  </si>
+  <si>
+    <t>DJPDXA4129594</t>
+  </si>
+  <si>
     <t>CDDU9024088</t>
   </si>
   <si>
@@ -302,10 +374,28 @@
     <t>6205085531</t>
   </si>
   <si>
-    <t>CMAU1748286</t>
-  </si>
-  <si>
-    <t>DJSEAA4076373</t>
+    <t>EITU0240601</t>
+  </si>
+  <si>
+    <t>UNI-ARDENT</t>
+  </si>
+  <si>
+    <t>077E</t>
+  </si>
+  <si>
+    <t>7032026875</t>
+  </si>
+  <si>
+    <t>143900069821</t>
+  </si>
+  <si>
+    <t>CSNU1552489</t>
+  </si>
+  <si>
+    <t>7032031647</t>
+  </si>
+  <si>
+    <t>6194916200</t>
   </si>
 </sst>
 </file>
@@ -350,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -461,39 +551,39 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -504,296 +594,436 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
         <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortTAC/Test.xlsx
+++ b/EvergreenPortTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,6 +32,102 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>MAGU2351668</t>
+  </si>
+  <si>
+    <t>EVER LEGION</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>7032010038</t>
+  </si>
+  <si>
+    <t>235900232540</t>
+  </si>
+  <si>
+    <t>SEGU5500923</t>
+  </si>
+  <si>
+    <t>EVER SHINE</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>7032027246</t>
+  </si>
+  <si>
+    <t>091930120641</t>
+  </si>
+  <si>
+    <t>LTIU6058360</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7032015003</t>
+  </si>
+  <si>
+    <t>003900598781</t>
+  </si>
+  <si>
+    <t>EITU0462851</t>
+  </si>
+  <si>
+    <t>7032029941</t>
+  </si>
+  <si>
+    <t>EGLV082900051439</t>
+  </si>
+  <si>
+    <t>TRLU9375670</t>
+  </si>
+  <si>
+    <t>VERMONT TRADER</t>
+  </si>
+  <si>
+    <t>00031</t>
+  </si>
+  <si>
+    <t>DJSEAA4029241</t>
+  </si>
+  <si>
+    <t>7032022913</t>
+  </si>
+  <si>
+    <t>AMC0733186</t>
+  </si>
+  <si>
+    <t>EMCU9883958</t>
+  </si>
+  <si>
+    <t>EVER URANUS</t>
+  </si>
+  <si>
+    <t>7032032330</t>
+  </si>
+  <si>
+    <t>EGLV149901138869</t>
+  </si>
+  <si>
+    <t>EGHU9364027</t>
+  </si>
+  <si>
+    <t>EVER STRONG</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>7032032390</t>
+  </si>
+  <si>
+    <t>003901100816</t>
+  </si>
+  <si>
     <t>EISU1860120</t>
   </si>
   <si>
@@ -50,15 +146,66 @@
     <t>003901232241</t>
   </si>
   <si>
+    <t>TCNU5209344</t>
+  </si>
+  <si>
+    <t>EVER STEADY</t>
+  </si>
+  <si>
+    <t>10077</t>
+  </si>
+  <si>
+    <t>DJSEAA4114189</t>
+  </si>
+  <si>
+    <t>7032030033</t>
+  </si>
+  <si>
+    <t>CNZY184321</t>
+  </si>
+  <si>
+    <t>APHU6935300</t>
+  </si>
+  <si>
+    <t>DJSEAA4114131</t>
+  </si>
+  <si>
+    <t>MAGU2389149</t>
+  </si>
+  <si>
+    <t>00021</t>
+  </si>
+  <si>
+    <t>DJSEAA4139357</t>
+  </si>
+  <si>
+    <t>7032024110</t>
+  </si>
+  <si>
+    <t>050900314105</t>
+  </si>
+  <si>
+    <t>TGHU0307519</t>
+  </si>
+  <si>
+    <t>00084</t>
+  </si>
+  <si>
+    <t>DJSEAA4115269</t>
+  </si>
+  <si>
+    <t>7032030901</t>
+  </si>
+  <si>
+    <t>003901061861</t>
+  </si>
+  <si>
     <t>FSCU4969990</t>
   </si>
   <si>
     <t>EVER SUMMIT</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>7032039424</t>
   </si>
   <si>
@@ -74,34 +221,31 @@
     <t>EGLV149901262071</t>
   </si>
   <si>
-    <t>CSNU1552489</t>
-  </si>
-  <si>
-    <t>EVER STRONG</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>7032031647</t>
-  </si>
-  <si>
-    <t>6194916200</t>
-  </si>
-  <si>
-    <t>LTIU6058360</t>
-  </si>
-  <si>
-    <t>EVER SHINE</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7032015003</t>
-  </si>
-  <si>
-    <t>003900598781</t>
+    <t>APHU6901574</t>
+  </si>
+  <si>
+    <t>DJSEAA4115553</t>
+  </si>
+  <si>
+    <t>7032033853</t>
+  </si>
+  <si>
+    <t>NPFB503537</t>
+  </si>
+  <si>
+    <t>CAIU4052489</t>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>DJSEAA4115632</t>
+  </si>
+  <si>
+    <t>7032031734</t>
+  </si>
+  <si>
+    <t>AJD0298307</t>
   </si>
   <si>
     <t>CDDU9024088</t>
@@ -119,6 +263,45 @@
     <t>6205085531</t>
   </si>
   <si>
+    <t>EITU0240601</t>
+  </si>
+  <si>
+    <t>UNI-ARDENT</t>
+  </si>
+  <si>
+    <t>077E</t>
+  </si>
+  <si>
+    <t>7032026875</t>
+  </si>
+  <si>
+    <t>143900069821</t>
+  </si>
+  <si>
+    <t>CBHU8652162</t>
+  </si>
+  <si>
+    <t>DJPDXA4184168</t>
+  </si>
+  <si>
+    <t>7180871496</t>
+  </si>
+  <si>
+    <t>6212436060</t>
+  </si>
+  <si>
+    <t>DRYU9308487</t>
+  </si>
+  <si>
+    <t>DJSEAA4176725</t>
+  </si>
+  <si>
+    <t>7032034983</t>
+  </si>
+  <si>
+    <t>003901100778</t>
+  </si>
+  <si>
     <t>APZU4537403</t>
   </si>
   <si>
@@ -131,88 +314,52 @@
     <t>NPCA008253</t>
   </si>
   <si>
-    <t>MAGU2389149</t>
-  </si>
-  <si>
-    <t>00021</t>
-  </si>
-  <si>
-    <t>DJSEAA4139357</t>
-  </si>
-  <si>
-    <t>7032024110</t>
-  </si>
-  <si>
-    <t>050900314105</t>
-  </si>
-  <si>
-    <t>EMCU9883958</t>
-  </si>
-  <si>
-    <t>EVER URANUS</t>
-  </si>
-  <si>
-    <t>7032032330</t>
-  </si>
-  <si>
-    <t>EGLV149901138869</t>
-  </si>
-  <si>
-    <t>APHU6935300</t>
-  </si>
-  <si>
-    <t>EVER STEADY</t>
-  </si>
-  <si>
-    <t>10077</t>
-  </si>
-  <si>
-    <t>DJSEAA4114131</t>
-  </si>
-  <si>
-    <t>7032030033</t>
-  </si>
-  <si>
-    <t>CNZY184321</t>
-  </si>
-  <si>
-    <t>APHU6901574</t>
-  </si>
-  <si>
-    <t>00084</t>
-  </si>
-  <si>
-    <t>DJSEAA4115553</t>
-  </si>
-  <si>
-    <t>7032033853</t>
-  </si>
-  <si>
-    <t>NPFB503537</t>
-  </si>
-  <si>
-    <t>SEGU5500923</t>
-  </si>
-  <si>
-    <t>7032027246</t>
-  </si>
-  <si>
-    <t>091930120641</t>
-  </si>
-  <si>
-    <t>CBHU7042231</t>
-  </si>
-  <si>
-    <t>00077</t>
-  </si>
-  <si>
-    <t>DJPDXA4115175</t>
-  </si>
-  <si>
-    <t>7180865489</t>
-  </si>
-  <si>
-    <t>6212300490</t>
+    <t>TLLU2000080</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>DJSEAA4179244</t>
+  </si>
+  <si>
+    <t>7032030622</t>
+  </si>
+  <si>
+    <t>QDGS088670</t>
+  </si>
+  <si>
+    <t>FCIU9127830</t>
+  </si>
+  <si>
+    <t>DJPDXA4184193</t>
+  </si>
+  <si>
+    <t>CCLU7216009</t>
+  </si>
+  <si>
+    <t>DJPDXA4184191</t>
+  </si>
+  <si>
+    <t>SEGU6035240</t>
+  </si>
+  <si>
+    <t>00131</t>
+  </si>
+  <si>
+    <t>DJSEAA4179093</t>
+  </si>
+  <si>
+    <t>7032043240</t>
+  </si>
+  <si>
+    <t>003901297202</t>
+  </si>
+  <si>
+    <t>CCLU4752986</t>
+  </si>
+  <si>
+    <t>DJPDXA4184172</t>
   </si>
   <si>
     <t>DFSU6330493</t>
@@ -221,19 +368,34 @@
     <t>DJSEAA4167453</t>
   </si>
   <si>
-    <t>CAIU4052489</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>DJSEAA4115632</t>
-  </si>
-  <si>
-    <t>7032031734</t>
-  </si>
-  <si>
-    <t>AJD0298307</t>
+    <t>FCIU7269162</t>
+  </si>
+  <si>
+    <t>00102</t>
+  </si>
+  <si>
+    <t>DJSEAA4185205</t>
+  </si>
+  <si>
+    <t>7032040390</t>
+  </si>
+  <si>
+    <t>003901100786</t>
+  </si>
+  <si>
+    <t>EISU1847392</t>
+  </si>
+  <si>
+    <t>084E</t>
+  </si>
+  <si>
+    <t>7032036431</t>
+  </si>
+  <si>
+    <t>003900855210</t>
+  </si>
+  <si>
+    <t>IMTU1063714</t>
   </si>
   <si>
     <t>EITU0547368</t>
@@ -243,129 +405,6 @@
   </si>
   <si>
     <t>EGLV140900382371</t>
-  </si>
-  <si>
-    <t>EISU1847392</t>
-  </si>
-  <si>
-    <t>084E</t>
-  </si>
-  <si>
-    <t>7032036431</t>
-  </si>
-  <si>
-    <t>003900855210</t>
-  </si>
-  <si>
-    <t>IMTU1063714</t>
-  </si>
-  <si>
-    <t>EITU0240601</t>
-  </si>
-  <si>
-    <t>UNI-ARDENT</t>
-  </si>
-  <si>
-    <t>077E</t>
-  </si>
-  <si>
-    <t>7032026875</t>
-  </si>
-  <si>
-    <t>143900069821</t>
-  </si>
-  <si>
-    <t>EITU0462851</t>
-  </si>
-  <si>
-    <t>EVER LEGION</t>
-  </si>
-  <si>
-    <t>7032029941</t>
-  </si>
-  <si>
-    <t>EGLV082900051439</t>
-  </si>
-  <si>
-    <t>CCLU4611653</t>
-  </si>
-  <si>
-    <t>VERMONT TRADER</t>
-  </si>
-  <si>
-    <t>DJSEAA3918933</t>
-  </si>
-  <si>
-    <t>7032009292</t>
-  </si>
-  <si>
-    <t>6206812420</t>
-  </si>
-  <si>
-    <t>MAGU2351668</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>7032010038</t>
-  </si>
-  <si>
-    <t>235900232540</t>
-  </si>
-  <si>
-    <t>TRLU9375670</t>
-  </si>
-  <si>
-    <t>00031</t>
-  </si>
-  <si>
-    <t>DJSEAA4029241</t>
-  </si>
-  <si>
-    <t>7032022913</t>
-  </si>
-  <si>
-    <t>AMC0733186</t>
-  </si>
-  <si>
-    <t>TCNU5209344</t>
-  </si>
-  <si>
-    <t>DJSEAA4114189</t>
-  </si>
-  <si>
-    <t>TGHU0307519</t>
-  </si>
-  <si>
-    <t>DJSEAA4115269</t>
-  </si>
-  <si>
-    <t>7032030901</t>
-  </si>
-  <si>
-    <t>003901061861</t>
-  </si>
-  <si>
-    <t>FCIU9981849</t>
-  </si>
-  <si>
-    <t>DJPDXA4123155</t>
-  </si>
-  <si>
-    <t>7180862608</t>
-  </si>
-  <si>
-    <t>003901031920</t>
-  </si>
-  <si>
-    <t>EGHU9364027</t>
-  </si>
-  <si>
-    <t>7032032390</t>
-  </si>
-  <si>
-    <t>003901100816</t>
   </si>
 </sst>
 </file>
@@ -410,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -450,41 +489,41 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -501,87 +540,87 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
       <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -604,70 +643,70 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
       </c>
       <c r="E13" t="s">
         <v>60</v>
@@ -681,39 +720,39 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>64</v>
       </c>
       <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
         <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>67</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -721,259 +760,339 @@
         <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>71</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
         <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortTAC/Test.xlsx
+++ b/EvergreenPortTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="124">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -113,117 +113,54 @@
     <t>EGLV149901138869</t>
   </si>
   <si>
-    <t>EGHU9364027</t>
+    <t>EISU1860120</t>
+  </si>
+  <si>
+    <t>EVER ETHIC</t>
+  </si>
+  <si>
+    <t>00132</t>
+  </si>
+  <si>
+    <t>DJSEAA4139052</t>
+  </si>
+  <si>
+    <t>7032035432</t>
+  </si>
+  <si>
+    <t>003901232241</t>
+  </si>
+  <si>
+    <t>FSCU4969990</t>
+  </si>
+  <si>
+    <t>EVER SUMMIT</t>
+  </si>
+  <si>
+    <t>7032039424</t>
+  </si>
+  <si>
+    <t>EGLV080900166671</t>
+  </si>
+  <si>
+    <t>EMCU9849892</t>
+  </si>
+  <si>
+    <t>7032039425</t>
+  </si>
+  <si>
+    <t>EGLV149901262071</t>
+  </si>
+  <si>
+    <t>APHU6901574</t>
   </si>
   <si>
     <t>EVER STRONG</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>7032032390</t>
-  </si>
-  <si>
-    <t>003901100816</t>
-  </si>
-  <si>
-    <t>EISU1860120</t>
-  </si>
-  <si>
-    <t>EVER ETHIC</t>
-  </si>
-  <si>
-    <t>00132</t>
-  </si>
-  <si>
-    <t>DJSEAA4139052</t>
-  </si>
-  <si>
-    <t>7032035432</t>
-  </si>
-  <si>
-    <t>003901232241</t>
-  </si>
-  <si>
-    <t>TCNU5209344</t>
-  </si>
-  <si>
-    <t>EVER STEADY</t>
-  </si>
-  <si>
-    <t>10077</t>
-  </si>
-  <si>
-    <t>DJSEAA4114189</t>
-  </si>
-  <si>
-    <t>7032030033</t>
-  </si>
-  <si>
-    <t>CNZY184321</t>
-  </si>
-  <si>
-    <t>APHU6935300</t>
-  </si>
-  <si>
-    <t>DJSEAA4114131</t>
-  </si>
-  <si>
-    <t>MAGU2389149</t>
-  </si>
-  <si>
-    <t>00021</t>
-  </si>
-  <si>
-    <t>DJSEAA4139357</t>
-  </si>
-  <si>
-    <t>7032024110</t>
-  </si>
-  <si>
-    <t>050900314105</t>
-  </si>
-  <si>
-    <t>TGHU0307519</t>
-  </si>
-  <si>
     <t>00084</t>
   </si>
   <si>
-    <t>DJSEAA4115269</t>
-  </si>
-  <si>
-    <t>7032030901</t>
-  </si>
-  <si>
-    <t>003901061861</t>
-  </si>
-  <si>
-    <t>FSCU4969990</t>
-  </si>
-  <si>
-    <t>EVER SUMMIT</t>
-  </si>
-  <si>
-    <t>7032039424</t>
-  </si>
-  <si>
-    <t>EGLV080900166671</t>
-  </si>
-  <si>
-    <t>EMCU9849892</t>
-  </si>
-  <si>
-    <t>7032039425</t>
-  </si>
-  <si>
-    <t>EGLV149901262071</t>
-  </si>
-  <si>
-    <t>APHU6901574</t>
-  </si>
-  <si>
     <t>DJSEAA4115553</t>
   </si>
   <si>
@@ -233,21 +170,6 @@
     <t>NPFB503537</t>
   </si>
   <si>
-    <t>CAIU4052489</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>DJSEAA4115632</t>
-  </si>
-  <si>
-    <t>7032031734</t>
-  </si>
-  <si>
-    <t>AJD0298307</t>
-  </si>
-  <si>
     <t>CDDU9024088</t>
   </si>
   <si>
@@ -263,19 +185,31 @@
     <t>6205085531</t>
   </si>
   <si>
-    <t>EITU0240601</t>
-  </si>
-  <si>
-    <t>UNI-ARDENT</t>
-  </si>
-  <si>
-    <t>077E</t>
-  </si>
-  <si>
-    <t>7032026875</t>
-  </si>
-  <si>
-    <t>143900069821</t>
+    <t>EITU1722531</t>
+  </si>
+  <si>
+    <t>00102</t>
+  </si>
+  <si>
+    <t>DJSEAA4192109</t>
+  </si>
+  <si>
+    <t>7032040523</t>
+  </si>
+  <si>
+    <t>003901238389</t>
+  </si>
+  <si>
+    <t>HJMU4227696</t>
+  </si>
+  <si>
+    <t>DJSEAA4185478</t>
+  </si>
+  <si>
+    <t>7032039488</t>
+  </si>
+  <si>
+    <t>NPCA008349</t>
   </si>
   <si>
     <t>CBHU8652162</t>
@@ -329,12 +263,48 @@
     <t>QDGS088670</t>
   </si>
   <si>
+    <t>EITU0464772</t>
+  </si>
+  <si>
+    <t>DJSEAA4185699</t>
+  </si>
+  <si>
+    <t>7032039059</t>
+  </si>
+  <si>
+    <t>003901278623</t>
+  </si>
+  <si>
     <t>FCIU9127830</t>
   </si>
   <si>
     <t>DJPDXA4184193</t>
   </si>
   <si>
+    <t>CBHU5651368</t>
+  </si>
+  <si>
+    <t>DJSEAA4191755</t>
+  </si>
+  <si>
+    <t>7032039500</t>
+  </si>
+  <si>
+    <t>6194940290</t>
+  </si>
+  <si>
+    <t>FCIU7269162</t>
+  </si>
+  <si>
+    <t>DJSEAA4185205</t>
+  </si>
+  <si>
+    <t>7032040390</t>
+  </si>
+  <si>
+    <t>003901100786</t>
+  </si>
+  <si>
     <t>CCLU7216009</t>
   </si>
   <si>
@@ -368,34 +338,43 @@
     <t>DJSEAA4167453</t>
   </si>
   <si>
-    <t>FCIU7269162</t>
-  </si>
-  <si>
-    <t>00102</t>
-  </si>
-  <si>
-    <t>DJSEAA4185205</t>
-  </si>
-  <si>
-    <t>7032040390</t>
-  </si>
-  <si>
-    <t>003901100786</t>
-  </si>
-  <si>
-    <t>EISU1847392</t>
-  </si>
-  <si>
-    <t>084E</t>
-  </si>
-  <si>
-    <t>7032036431</t>
-  </si>
-  <si>
-    <t>003900855210</t>
-  </si>
-  <si>
-    <t>IMTU1063714</t>
+    <t>EGSU9153373</t>
+  </si>
+  <si>
+    <t>7180868701</t>
+  </si>
+  <si>
+    <t>003901232283</t>
+  </si>
+  <si>
+    <t>TCLU4294370</t>
+  </si>
+  <si>
+    <t>DJPDXA4191237</t>
+  </si>
+  <si>
+    <t>7180865493</t>
+  </si>
+  <si>
+    <t>003900994058</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>7032040298</t>
+  </si>
+  <si>
+    <t>CDDU9024093</t>
+  </si>
+  <si>
+    <t>DJSEAA4192425</t>
+  </si>
+  <si>
+    <t>7032030852</t>
+  </si>
+  <si>
+    <t>6205122140</t>
   </si>
   <si>
     <t>EITU0547368</t>
@@ -449,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -609,70 +588,70 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
       </c>
       <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -680,7 +659,7 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
@@ -700,7 +679,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>58</v>
@@ -720,13 +699,13 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
         <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
       </c>
       <c r="E14" t="s">
         <v>64</v>
@@ -740,50 +719,50 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>75</v>
@@ -820,279 +799,259 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
         <v>84</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>85</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>86</v>
-      </c>
-      <c r="E19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
         <v>88</v>
       </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
         <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
         <v>96</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortTAC/Test.xlsx
+++ b/EvergreenPortTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="144">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -170,21 +170,6 @@
     <t>NPFB503537</t>
   </si>
   <si>
-    <t>CDDU9024088</t>
-  </si>
-  <si>
-    <t>00211</t>
-  </si>
-  <si>
-    <t>DJSEAA4110169</t>
-  </si>
-  <si>
-    <t>7032030969</t>
-  </si>
-  <si>
-    <t>6205085531</t>
-  </si>
-  <si>
     <t>EITU1722531</t>
   </si>
   <si>
@@ -200,16 +185,19 @@
     <t>003901238389</t>
   </si>
   <si>
-    <t>HJMU4227696</t>
-  </si>
-  <si>
-    <t>DJSEAA4185478</t>
-  </si>
-  <si>
-    <t>7032039488</t>
-  </si>
-  <si>
-    <t>NPCA008349</t>
+    <t>CDDU9024046</t>
+  </si>
+  <si>
+    <t>00213</t>
+  </si>
+  <si>
+    <t>DJSEAA4207531</t>
+  </si>
+  <si>
+    <t>7032040393</t>
+  </si>
+  <si>
+    <t>6205212952</t>
   </si>
   <si>
     <t>CBHU8652162</t>
@@ -224,18 +212,6 @@
     <t>6212436060</t>
   </si>
   <si>
-    <t>DRYU9308487</t>
-  </si>
-  <si>
-    <t>DJSEAA4176725</t>
-  </si>
-  <si>
-    <t>7032034983</t>
-  </si>
-  <si>
-    <t>003901100778</t>
-  </si>
-  <si>
     <t>APZU4537403</t>
   </si>
   <si>
@@ -248,19 +224,16 @@
     <t>NPCA008253</t>
   </si>
   <si>
-    <t>TLLU2000080</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>DJSEAA4179244</t>
-  </si>
-  <si>
-    <t>7032030622</t>
-  </si>
-  <si>
-    <t>QDGS088670</t>
+    <t>CDDU9024133</t>
+  </si>
+  <si>
+    <t>DJSEAA4207534</t>
+  </si>
+  <si>
+    <t>7032040395</t>
+  </si>
+  <si>
+    <t>6205212950</t>
   </si>
   <si>
     <t>EITU0464772</t>
@@ -293,6 +266,18 @@
     <t>6194940290</t>
   </si>
   <si>
+    <t>IMTU1022525</t>
+  </si>
+  <si>
+    <t>132E</t>
+  </si>
+  <si>
+    <t>7032033722</t>
+  </si>
+  <si>
+    <t>003901036182</t>
+  </si>
+  <si>
     <t>FCIU7269162</t>
   </si>
   <si>
@@ -347,43 +332,118 @@
     <t>003901232283</t>
   </si>
   <si>
-    <t>TCLU4294370</t>
-  </si>
-  <si>
-    <t>DJPDXA4191237</t>
-  </si>
-  <si>
-    <t>7180865493</t>
-  </si>
-  <si>
-    <t>003900994058</t>
-  </si>
-  <si>
     <t>213</t>
   </si>
   <si>
     <t>7032040298</t>
   </si>
   <si>
-    <t>CDDU9024093</t>
-  </si>
-  <si>
-    <t>DJSEAA4192425</t>
-  </si>
-  <si>
-    <t>7032030852</t>
-  </si>
-  <si>
-    <t>6205122140</t>
-  </si>
-  <si>
-    <t>EITU0547368</t>
-  </si>
-  <si>
-    <t>7032044460</t>
-  </si>
-  <si>
-    <t>EGLV140900382371</t>
+    <t>CCLU4851799</t>
+  </si>
+  <si>
+    <t>DJPDXA4229400</t>
+  </si>
+  <si>
+    <t>7180874064</t>
+  </si>
+  <si>
+    <t>6212436340</t>
+  </si>
+  <si>
+    <t>BMOU5149730</t>
+  </si>
+  <si>
+    <t>DJSEAA4221300</t>
+  </si>
+  <si>
+    <t>7032043918</t>
+  </si>
+  <si>
+    <t>6212404010</t>
+  </si>
+  <si>
+    <t>CCLU4912174</t>
+  </si>
+  <si>
+    <t>DJPDXA4229401</t>
+  </si>
+  <si>
+    <t>TCLU1871340</t>
+  </si>
+  <si>
+    <t>DJSEAA4219999</t>
+  </si>
+  <si>
+    <t>7032043947</t>
+  </si>
+  <si>
+    <t>NPCA008445</t>
+  </si>
+  <si>
+    <t>EGSU3104690</t>
+  </si>
+  <si>
+    <t>CAPE KORTIA</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>7032030818</t>
+  </si>
+  <si>
+    <t>235900362109</t>
+  </si>
+  <si>
+    <t>TCNU5476891</t>
+  </si>
+  <si>
+    <t>DJSEAA4230613</t>
+  </si>
+  <si>
+    <t>7032044023</t>
+  </si>
+  <si>
+    <t>003901239300</t>
+  </si>
+  <si>
+    <t>EITU1960118</t>
+  </si>
+  <si>
+    <t>7032051849</t>
+  </si>
+  <si>
+    <t>EGLV149901517240</t>
+  </si>
+  <si>
+    <t>EGHU9304809</t>
+  </si>
+  <si>
+    <t>DJSEAA4230604</t>
+  </si>
+  <si>
+    <t>7032043953</t>
+  </si>
+  <si>
+    <t>003901171110</t>
+  </si>
+  <si>
+    <t>EITU0220117</t>
+  </si>
+  <si>
+    <t>DJSEAA4228435</t>
+  </si>
+  <si>
+    <t>7032039492</t>
+  </si>
+  <si>
+    <t>003901291212</t>
+  </si>
+  <si>
+    <t>TGBU5813420</t>
+  </si>
+  <si>
+    <t>7032051850</t>
   </si>
 </sst>
 </file>
@@ -428,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -659,7 +719,7 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
@@ -739,10 +799,10 @@
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
@@ -759,10 +819,10 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>75</v>
@@ -782,116 +842,116 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
         <v>83</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
         <v>89</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
         <v>93</v>
       </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
         <v>97</v>
       </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>98</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -899,24 +959,24 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
         <v>100</v>
       </c>
-      <c r="D24" t="s">
-        <v>101</v>
-      </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -925,7 +985,7 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -936,7 +996,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -945,113 +1005,233 @@
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" t="s">
         <v>111</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" t="s">
         <v>115</v>
-      </c>
-      <c r="D29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
         <v>121</v>
       </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="D31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" t="s">
-        <v>123</v>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortTAC/Test.xlsx
+++ b/EvergreenPortTAC/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="210">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,39 +32,27 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>CBHU5651368</t>
+    <t>PVCU2809217</t>
+  </si>
+  <si>
+    <t>EVER SUMMIT</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>7032045901</t>
+  </si>
+  <si>
+    <t>235900491880</t>
+  </si>
+  <si>
+    <t>TGBU7147637</t>
   </si>
   <si>
     <t>EVER SHINE</t>
   </si>
   <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>7032040298</t>
-  </si>
-  <si>
-    <t>6194940290</t>
-  </si>
-  <si>
-    <t>PVCU2809217</t>
-  </si>
-  <si>
-    <t>EVER SUMMIT</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>7032045901</t>
-  </si>
-  <si>
-    <t>235900491880</t>
-  </si>
-  <si>
-    <t>TGBU7147637</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -89,99 +77,90 @@
     <t>235900362109</t>
   </si>
   <si>
-    <t>TCKU6148167</t>
+    <t>EITU9035022</t>
+  </si>
+  <si>
+    <t>7032054217</t>
+  </si>
+  <si>
+    <t>EGLV080900194535</t>
+  </si>
+  <si>
+    <t>TRHU3597542</t>
+  </si>
+  <si>
+    <t>EVER URANUS</t>
+  </si>
+  <si>
+    <t>00131</t>
+  </si>
+  <si>
+    <t>DJSEAA4234899</t>
+  </si>
+  <si>
+    <t>7032048367</t>
+  </si>
+  <si>
+    <t>6213490080</t>
+  </si>
+  <si>
+    <t>TCLU7920605</t>
+  </si>
+  <si>
+    <t>7032054221</t>
+  </si>
+  <si>
+    <t>EGLV080900194551</t>
+  </si>
+  <si>
+    <t>SEGU4429754</t>
+  </si>
+  <si>
+    <t>0214-131E</t>
+  </si>
+  <si>
+    <t>9074906327-01</t>
+  </si>
+  <si>
+    <t>COSU6209523170</t>
+  </si>
+  <si>
+    <t>DFSU2678881</t>
+  </si>
+  <si>
+    <t>EVER ETHIC</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>7032057126</t>
+  </si>
+  <si>
+    <t>COSU6202769480</t>
+  </si>
+  <si>
+    <t>APZU4750337</t>
+  </si>
+  <si>
+    <t>00133</t>
+  </si>
+  <si>
+    <t>DJPDXA4416757</t>
+  </si>
+  <si>
+    <t>7180889509</t>
+  </si>
+  <si>
+    <t>NPCA009084</t>
+  </si>
+  <si>
+    <t>TGBU5729773</t>
   </si>
   <si>
     <t>EVER STEADY</t>
   </si>
   <si>
-    <t>00078</t>
-  </si>
-  <si>
-    <t>DJSEAA4237028</t>
-  </si>
-  <si>
-    <t>7032053448</t>
-  </si>
-  <si>
-    <t>003901450591</t>
-  </si>
-  <si>
-    <t>EITU9035022</t>
-  </si>
-  <si>
-    <t>7032054217</t>
-  </si>
-  <si>
-    <t>EGLV080900194535</t>
-  </si>
-  <si>
-    <t>TRHU3597542</t>
-  </si>
-  <si>
-    <t>EVER URANUS</t>
-  </si>
-  <si>
-    <t>00131</t>
-  </si>
-  <si>
-    <t>DJSEAA4234899</t>
-  </si>
-  <si>
-    <t>7032048367</t>
-  </si>
-  <si>
-    <t>6213490080</t>
-  </si>
-  <si>
-    <t>TCLU7920605</t>
-  </si>
-  <si>
-    <t>7032054221</t>
-  </si>
-  <si>
-    <t>EGLV080900194551</t>
-  </si>
-  <si>
-    <t>SEGU4429754</t>
-  </si>
-  <si>
-    <t>0214-131E</t>
-  </si>
-  <si>
-    <t>9074906327-01</t>
-  </si>
-  <si>
-    <t>COSU6209523170</t>
-  </si>
-  <si>
-    <t>EITU1164907</t>
-  </si>
-  <si>
-    <t>7032069902</t>
-  </si>
-  <si>
-    <t>EGLV149901965714</t>
-  </si>
-  <si>
-    <t>TCNU7645521</t>
-  </si>
-  <si>
-    <t>EVER STRONG</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>7032058539</t>
-  </si>
-  <si>
-    <t>6194966681</t>
-  </si>
-  <si>
-    <t>TGBU5729773</t>
-  </si>
-  <si>
     <t>391</t>
   </si>
   <si>
@@ -191,238 +170,478 @@
     <t>6194962520</t>
   </si>
   <si>
-    <t>EITU1806442</t>
-  </si>
-  <si>
-    <t>7032069903</t>
-  </si>
-  <si>
-    <t>EITU0018744</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>7032057318</t>
-  </si>
-  <si>
-    <t>003901612418</t>
-  </si>
-  <si>
-    <t>TGBU6306400</t>
-  </si>
-  <si>
-    <t>DJSEAA4348411</t>
-  </si>
-  <si>
-    <t>7032053757</t>
-  </si>
-  <si>
-    <t>003901440471</t>
-  </si>
-  <si>
-    <t>EITU1452077</t>
-  </si>
-  <si>
-    <t>7032069901</t>
-  </si>
-  <si>
-    <t>EGLV003901467213</t>
-  </si>
-  <si>
-    <t>EMCU8030375</t>
-  </si>
-  <si>
-    <t>00085</t>
-  </si>
-  <si>
-    <t>DJSEAA4363683</t>
-  </si>
-  <si>
-    <t>7032057261</t>
-  </si>
-  <si>
-    <t>003901535235</t>
-  </si>
-  <si>
-    <t>EGHU9192798</t>
-  </si>
-  <si>
-    <t>7032071080</t>
-  </si>
-  <si>
-    <t>EGLV080900291280</t>
-  </si>
-  <si>
-    <t>APZU4684702</t>
-  </si>
-  <si>
-    <t>0NW39</t>
-  </si>
-  <si>
-    <t>7032053476</t>
-  </si>
-  <si>
-    <t>AJD0318757</t>
-  </si>
-  <si>
-    <t>TGSU4000714</t>
-  </si>
-  <si>
-    <t>CBHU8139822</t>
-  </si>
-  <si>
-    <t>DJSEAA4333364</t>
-  </si>
-  <si>
-    <t>7032057245</t>
-  </si>
-  <si>
-    <t>6194962090</t>
-  </si>
-  <si>
-    <t>FCIU7184281</t>
-  </si>
-  <si>
-    <t>DJSEAA4361602</t>
-  </si>
-  <si>
-    <t>7032057298</t>
-  </si>
-  <si>
-    <t>003901535243</t>
-  </si>
-  <si>
-    <t>EGHU3333311</t>
-  </si>
-  <si>
-    <t>7032068714</t>
-  </si>
-  <si>
-    <t>EGLV149902111816</t>
-  </si>
-  <si>
-    <t>CAIU3071191</t>
+    <t>CSNU4001263</t>
+  </si>
+  <si>
+    <t>DJSEAA4385577</t>
+  </si>
+  <si>
+    <t>7032068917</t>
+  </si>
+  <si>
+    <t>6213493400</t>
+  </si>
+  <si>
+    <t>EISU8038640</t>
+  </si>
+  <si>
+    <t>7032081802</t>
+  </si>
+  <si>
+    <t>EGLV149902257144</t>
+  </si>
+  <si>
+    <t>EGHU1038169</t>
+  </si>
+  <si>
+    <t>7032081813</t>
+  </si>
+  <si>
+    <t>EGLV149902111867</t>
+  </si>
+  <si>
+    <t>EMCU9762874</t>
+  </si>
+  <si>
+    <t>7032081817</t>
+  </si>
+  <si>
+    <t>EGLV149901965951</t>
+  </si>
+  <si>
+    <t>TCLU4352040</t>
+  </si>
+  <si>
+    <t>7032081803</t>
+  </si>
+  <si>
+    <t>EGLV149901965862</t>
+  </si>
+  <si>
+    <t>EISU3855484</t>
+  </si>
+  <si>
+    <t>EVER EXCEL</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>7032058351</t>
+  </si>
+  <si>
+    <t>235900537367</t>
+  </si>
+  <si>
+    <t>HMCU1002760</t>
+  </si>
+  <si>
+    <t>7032081804</t>
+  </si>
+  <si>
+    <t>EGLV149902111948</t>
+  </si>
+  <si>
+    <t>SEGU6411203</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>7032064292</t>
+  </si>
+  <si>
+    <t>6194974200</t>
+  </si>
+  <si>
+    <t>CCLU4717706</t>
+  </si>
+  <si>
+    <t>DJSEAA4415270</t>
+  </si>
+  <si>
+    <t>7032064129</t>
+  </si>
+  <si>
+    <t>6205458140</t>
+  </si>
+  <si>
+    <t>UETU5763310</t>
+  </si>
+  <si>
+    <t>DJSEAA4400467</t>
+  </si>
+  <si>
+    <t>7032063147</t>
+  </si>
+  <si>
+    <t>6194960131</t>
+  </si>
+  <si>
+    <t>DFSU1791168</t>
+  </si>
+  <si>
+    <t>DJSEAA4400475</t>
+  </si>
+  <si>
+    <t>7032063149</t>
+  </si>
+  <si>
+    <t>6194960132</t>
+  </si>
+  <si>
+    <t>CSNU6503506</t>
+  </si>
+  <si>
+    <t>00139</t>
+  </si>
+  <si>
+    <t>DJSEAA4400546</t>
+  </si>
+  <si>
+    <t>7032068318</t>
+  </si>
+  <si>
+    <t>6194937900</t>
+  </si>
+  <si>
+    <t>EGHU3461884</t>
+  </si>
+  <si>
+    <t>DJSEAA4414630</t>
+  </si>
+  <si>
+    <t>7032064027</t>
+  </si>
+  <si>
+    <t>003901572416</t>
+  </si>
+  <si>
+    <t>TLLU4869452</t>
+  </si>
+  <si>
+    <t>7032081812</t>
+  </si>
+  <si>
+    <t>CCLU4900147</t>
+  </si>
+  <si>
+    <t>DJSEAA4415273</t>
+  </si>
+  <si>
+    <t>SEGU4834206</t>
+  </si>
+  <si>
+    <t>DJSEAA4400505</t>
+  </si>
+  <si>
+    <t>7032063153</t>
+  </si>
+  <si>
+    <t>6194974201</t>
+  </si>
+  <si>
+    <t>CSNU4088094</t>
+  </si>
+  <si>
+    <t>DJSEAA4401340</t>
+  </si>
+  <si>
+    <t>7032068909</t>
+  </si>
+  <si>
+    <t>6213564320</t>
+  </si>
+  <si>
+    <t>DJSEAA4401378</t>
+  </si>
+  <si>
+    <t>7032068911</t>
+  </si>
+  <si>
+    <t>CCFU8000066</t>
+  </si>
+  <si>
+    <t>DJSEAA4401949</t>
+  </si>
+  <si>
+    <t>7032068229</t>
+  </si>
+  <si>
+    <t>6213495600</t>
+  </si>
+  <si>
+    <t>CMAU5145589</t>
+  </si>
+  <si>
+    <t>EVER SMILE</t>
+  </si>
+  <si>
+    <t>00090</t>
+  </si>
+  <si>
+    <t>DJSEAA4407602</t>
+  </si>
+  <si>
+    <t>7032074921</t>
+  </si>
+  <si>
+    <t>NPFB504664</t>
+  </si>
+  <si>
+    <t>CSLU6059170</t>
+  </si>
+  <si>
+    <t>DJSEAA4400451</t>
+  </si>
+  <si>
+    <t>7032063145</t>
+  </si>
+  <si>
+    <t>6194960130</t>
+  </si>
+  <si>
+    <t>CBHU9031853</t>
+  </si>
+  <si>
+    <t>DJSEAA4400485</t>
+  </si>
+  <si>
+    <t>7032063151</t>
+  </si>
+  <si>
+    <t>6194989270</t>
+  </si>
+  <si>
+    <t>EITU1649364</t>
+  </si>
+  <si>
+    <t>VER ETHIC</t>
+  </si>
+  <si>
+    <t>7032081814</t>
+  </si>
+  <si>
+    <t>EMCU9663974</t>
+  </si>
+  <si>
+    <t>7032081816</t>
+  </si>
+  <si>
+    <t>DJSEAA4408089</t>
+  </si>
+  <si>
+    <t>7032068910</t>
+  </si>
+  <si>
+    <t>CMAU7968626</t>
+  </si>
+  <si>
+    <t>DJSEAA4438202</t>
+  </si>
+  <si>
+    <t>7032073590</t>
+  </si>
+  <si>
+    <t>NPCA009163</t>
+  </si>
+  <si>
+    <t>EGHU8002701</t>
+  </si>
+  <si>
+    <t>DJSEAA4435294</t>
+  </si>
+  <si>
+    <t>7032073576</t>
+  </si>
+  <si>
+    <t>143984886222</t>
+  </si>
+  <si>
+    <t>DFSU7804792</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>7032069639</t>
+  </si>
+  <si>
+    <t>6194996030</t>
+  </si>
+  <si>
+    <t>CCFU8000111</t>
+  </si>
+  <si>
+    <t>DJSEAA4435416</t>
+  </si>
+  <si>
+    <t>7032068242</t>
+  </si>
+  <si>
+    <t>6213499170</t>
+  </si>
+  <si>
+    <t>PVCU2812062</t>
+  </si>
+  <si>
+    <t>DJSEAA4442845</t>
+  </si>
+  <si>
+    <t>7032068773</t>
+  </si>
+  <si>
+    <t>6213564240</t>
+  </si>
+  <si>
+    <t>TCLU4370104</t>
+  </si>
+  <si>
+    <t>DJSEAA4443711</t>
+  </si>
+  <si>
+    <t>7032075049</t>
+  </si>
+  <si>
+    <t>003901689828</t>
+  </si>
+  <si>
+    <t>DFSU4348744</t>
+  </si>
+  <si>
+    <t>DJSEAA4444155</t>
+  </si>
+  <si>
+    <t>7032068960</t>
+  </si>
+  <si>
+    <t>6205498890</t>
+  </si>
+  <si>
+    <t>EGSU5023793</t>
+  </si>
+  <si>
+    <t>7180890517</t>
+  </si>
+  <si>
+    <t>003901773357</t>
+  </si>
+  <si>
+    <t>FSCU4976556</t>
+  </si>
+  <si>
+    <t>7180890289</t>
+  </si>
+  <si>
+    <t>003901433327</t>
+  </si>
+  <si>
+    <t>EGHU9482992</t>
+  </si>
+  <si>
+    <t>DJSEAA4443704</t>
+  </si>
+  <si>
+    <t>7032069934</t>
+  </si>
+  <si>
+    <t>003901689488</t>
+  </si>
+  <si>
+    <t>EISU8065374</t>
+  </si>
+  <si>
+    <t>DJSEAA4435297</t>
+  </si>
+  <si>
+    <t>EISU9305016</t>
+  </si>
+  <si>
+    <t>DJSEAA4450469</t>
+  </si>
+  <si>
+    <t>7032074895</t>
+  </si>
+  <si>
+    <t>143986251364</t>
+  </si>
+  <si>
+    <t>HMCU1093651</t>
+  </si>
+  <si>
+    <t>DJSEAA4449897</t>
+  </si>
+  <si>
+    <t>7032069943</t>
+  </si>
+  <si>
+    <t>003901773365</t>
+  </si>
+  <si>
+    <t>FCIU4621752</t>
   </si>
   <si>
     <t>00031</t>
   </si>
   <si>
-    <t>DJSEAA4333308</t>
-  </si>
-  <si>
-    <t>7032051902</t>
-  </si>
-  <si>
-    <t>AOC0141347</t>
-  </si>
-  <si>
-    <t>DFSU4193386</t>
-  </si>
-  <si>
-    <t>00216</t>
-  </si>
-  <si>
-    <t>DJSEAA4304281</t>
-  </si>
-  <si>
-    <t>7032053667</t>
-  </si>
-  <si>
-    <t>6205338495</t>
-  </si>
-  <si>
-    <t>LTIU6071504</t>
-  </si>
-  <si>
-    <t>7032058535</t>
-  </si>
-  <si>
-    <t>003901543386</t>
-  </si>
-  <si>
-    <t>TEMU3815281</t>
-  </si>
-  <si>
-    <t>DJSEAA4304272</t>
-  </si>
-  <si>
-    <t>7032053660</t>
-  </si>
-  <si>
-    <t>6205338494</t>
-  </si>
-  <si>
-    <t>TGHU6822558</t>
-  </si>
-  <si>
-    <t>7032070372</t>
-  </si>
-  <si>
-    <t>UETU9005577</t>
-  </si>
-  <si>
-    <t>7032064085</t>
-  </si>
-  <si>
-    <t>6213498230</t>
-  </si>
-  <si>
-    <t>FSCU5046739</t>
-  </si>
-  <si>
-    <t>DJSEAA4347559</t>
-  </si>
-  <si>
-    <t>7032064059</t>
-  </si>
-  <si>
-    <t>6213493380</t>
-  </si>
-  <si>
-    <t>TGBU6608971</t>
-  </si>
-  <si>
-    <t>7032071082</t>
-  </si>
-  <si>
-    <t>EGLV080900270398</t>
-  </si>
-  <si>
-    <t>TLLU5379470</t>
-  </si>
-  <si>
-    <t>7032058537</t>
-  </si>
-  <si>
-    <t>6194966680</t>
-  </si>
-  <si>
-    <t>CCLU4701309</t>
-  </si>
-  <si>
-    <t>DJSEAA4347556</t>
-  </si>
-  <si>
-    <t>CXDU2220833</t>
-  </si>
-  <si>
-    <t>DJSEAA4296632</t>
-  </si>
-  <si>
-    <t>7032051935</t>
-  </si>
-  <si>
-    <t>6194968580</t>
-  </si>
-  <si>
-    <t>EMCU5263814</t>
-  </si>
-  <si>
-    <t>7180881483</t>
-  </si>
-  <si>
-    <t>003901553381</t>
+    <t>DJSEAA4450098</t>
+  </si>
+  <si>
+    <t>7032070028</t>
+  </si>
+  <si>
+    <t>AOC0144697</t>
+  </si>
+  <si>
+    <t>OOLU7475520</t>
+  </si>
+  <si>
+    <t>00219</t>
+  </si>
+  <si>
+    <t>DJPDXA4449914</t>
+  </si>
+  <si>
+    <t>7180890350</t>
+  </si>
+  <si>
+    <t>6205505075</t>
+  </si>
+  <si>
+    <t>CBHU6333016</t>
+  </si>
+  <si>
+    <t>DJSEAA4451969</t>
+  </si>
+  <si>
+    <t>7032069183</t>
+  </si>
+  <si>
+    <t>6205505080</t>
+  </si>
+  <si>
+    <t>DBCU2030729</t>
+  </si>
+  <si>
+    <t>DJSEAA4435512</t>
+  </si>
+  <si>
+    <t>7032068962</t>
+  </si>
+  <si>
+    <t>6205498891</t>
+  </si>
+  <si>
+    <t>IMTU1100079</t>
+  </si>
+  <si>
+    <t>DJSEAA4450480</t>
+  </si>
+  <si>
+    <t>7032080318</t>
+  </si>
+  <si>
+    <t>143984886630</t>
   </si>
 </sst>
 </file>
@@ -467,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -538,135 +757,135 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8"/>
+      <c r="F8" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
         <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="E10"/>
       <c r="F10" t="s">
         <v>46</v>
       </c>
@@ -676,50 +895,50 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
@@ -736,10 +955,10 @@
         <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>60</v>
@@ -748,18 +967,18 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>63</v>
@@ -776,70 +995,70 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
       </c>
       <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
         <v>67</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>74</v>
       </c>
       <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
         <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
         <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -856,13 +1075,13 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
         <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
       </c>
       <c r="E20" t="s">
         <v>82</v>
@@ -876,133 +1095,133 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
         <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>107</v>
       </c>
       <c r="E27" t="s">
         <v>107</v>
@@ -1016,10 +1235,10 @@
         <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>110</v>
@@ -1033,22 +1252,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
         <v>113</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>114</v>
       </c>
       <c r="E29" t="s">
         <v>114</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -1056,139 +1275,499 @@
         <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
         <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" t="s">
+        <v>191</v>
+      </c>
+      <c r="F50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" t="s">
+        <v>203</v>
+      </c>
+      <c r="E53" t="s">
+        <v>204</v>
+      </c>
+      <c r="F53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
